--- a/3D_Boids_Render/exchangeInfo.xlsx
+++ b/3D_Boids_Render/exchangeInfo.xlsx
@@ -7745,7 +7745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H273"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
@@ -7766,13 +7766,13 @@
         <v>97</v>
       </c>
       <c r="C1" s="0">
-        <v>15.834298924219068</v>
+        <v>15.654363709171124</v>
       </c>
       <c r="D1" s="0">
-        <v>5.0003049234375929</v>
+        <v>4.9434832765803467</v>
       </c>
       <c r="E1" s="0">
-        <v>5.8336890773438626</v>
+        <v>5.7673971560104089</v>
       </c>
       <c r="F1" s="0">
         <v>16</v>
@@ -7792,13 +7792,13 @@
         <v>293</v>
       </c>
       <c r="C2" s="0">
-        <v>18.749260105161927</v>
+        <v>18.565443829621124</v>
       </c>
       <c r="D2" s="0">
-        <v>6.9290743866902904</v>
+        <v>6.8611422848599934</v>
       </c>
       <c r="E2" s="0">
-        <v>4.0759261098178223</v>
+        <v>4.035966049917648</v>
       </c>
       <c r="F2" s="0">
         <v>19</v>
@@ -7818,13 +7818,13 @@
         <v>189</v>
       </c>
       <c r="C3" s="0">
-        <v>17.744862488362401</v>
+        <v>17.567413863478777</v>
       </c>
       <c r="D3" s="0">
-        <v>8.722051053601847</v>
+        <v>8.6348305430658279</v>
       </c>
       <c r="E3" s="0">
-        <v>3.0076038115868458</v>
+        <v>2.9775277734709773</v>
       </c>
       <c r="F3" s="0">
         <v>18</v>
@@ -7844,13 +7844,13 @@
         <v>465</v>
       </c>
       <c r="C4" s="0">
-        <v>20.684874905211196</v>
+        <v>20.495105410667975</v>
       </c>
       <c r="D4" s="0">
-        <v>4.8670293894614609</v>
+        <v>4.8223777436865856</v>
       </c>
       <c r="E4" s="0">
-        <v>4.8670293894614609</v>
+        <v>4.8223777436865856</v>
       </c>
       <c r="F4" s="0">
         <v>21</v>
@@ -7870,13 +7870,13 @@
         <v>325</v>
       </c>
       <c r="C5" s="0">
-        <v>18.713313675234218</v>
+        <v>18.576720144758056</v>
       </c>
       <c r="D5" s="0">
-        <v>18.713313675234218</v>
+        <v>18.576720144758056</v>
       </c>
       <c r="E5" s="0">
-        <v>7.0981534630198873</v>
+        <v>7.0463421238737567</v>
       </c>
       <c r="F5" s="0">
         <v>19</v>
@@ -7896,13 +7896,13 @@
         <v>517</v>
       </c>
       <c r="C6" s="0">
-        <v>21.721950307003222</v>
+        <v>21.53941290946538</v>
       </c>
       <c r="D6" s="0">
-        <v>8.9024386504111224</v>
+        <v>8.8276282415841383</v>
       </c>
       <c r="E6" s="0">
-        <v>3.9170730061808978</v>
+        <v>3.8841564262970247</v>
       </c>
       <c r="F6" s="0">
         <v>22</v>
@@ -7922,13 +7922,13 @@
         <v>357</v>
       </c>
       <c r="C7" s="0">
-        <v>19.997180137810599</v>
+        <v>20.396196695726761</v>
       </c>
       <c r="D7" s="0">
-        <v>4.8194469796499622</v>
+        <v>4.7954098376068197</v>
       </c>
       <c r="E7" s="0">
-        <v>2.8916681877899819</v>
+        <v>2.8772459025640971</v>
       </c>
       <c r="F7" s="0">
         <v>20</v>
@@ -7948,13 +7948,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="0">
-        <v>7.0563895921553206</v>
+        <v>7.4518943172950811</v>
       </c>
       <c r="D8" s="0">
-        <v>8.8988563156446983</v>
+        <v>8.8609888419611025</v>
       </c>
       <c r="E8" s="0">
-        <v>10.876379941343522</v>
+        <v>10.830097473508017</v>
       </c>
       <c r="F8" s="0">
         <v>7</v>
@@ -7974,13 +7974,13 @@
         <v>313</v>
       </c>
       <c r="C9" s="0">
-        <v>18.918714545343732</v>
+        <v>19.314233010976196</v>
       </c>
       <c r="D9" s="0">
-        <v>10.74571253013516</v>
+        <v>10.693294420232061</v>
       </c>
       <c r="E9" s="0">
-        <v>5.8612977437100895</v>
+        <v>5.8327060473993084</v>
       </c>
       <c r="F9" s="0">
         <v>19</v>
@@ -8000,13 +8000,13 @@
         <v>115</v>
       </c>
       <c r="C10" s="0">
-        <v>20.201496727111348</v>
+        <v>20.600489243475785</v>
       </c>
       <c r="D10" s="0">
-        <v>4.8657623946883346</v>
+        <v>4.8414335827148935</v>
       </c>
       <c r="E10" s="0">
-        <v>2.919457436813</v>
+        <v>2.9048601496289352</v>
       </c>
       <c r="F10" s="0">
         <v>20</v>
@@ -8026,13 +8026,13 @@
         <v>249</v>
       </c>
       <c r="C11" s="0">
-        <v>18.12716639339709</v>
+        <v>18.325886863316029</v>
       </c>
       <c r="D11" s="0">
-        <v>4.9320984100363212</v>
+        <v>4.9201272973906018</v>
       </c>
       <c r="E11" s="0">
-        <v>7.8913574560581115</v>
+        <v>7.8722036758249603</v>
       </c>
       <c r="F11" s="0">
         <v>18</v>
@@ -8052,13 +8052,13 @@
         <v>369</v>
       </c>
       <c r="C12" s="0">
-        <v>20.242792669176669</v>
+        <v>20.442185687503731</v>
       </c>
       <c r="D12" s="0">
-        <v>4.8632443494404516</v>
+        <v>4.8510862385668512</v>
       </c>
       <c r="E12" s="0">
-        <v>3.8905954795523598</v>
+        <v>3.8808689908534793</v>
       </c>
       <c r="F12" s="0">
         <v>20</v>
@@ -8078,13 +8078,13 @@
         <v>621</v>
       </c>
       <c r="C13" s="0">
-        <v>21.09283543290994</v>
+        <v>21.2920959494935</v>
       </c>
       <c r="D13" s="0">
-        <v>4.8114124736030481</v>
+        <v>4.7992624421040508</v>
       </c>
       <c r="E13" s="0">
-        <v>4.8114124736030481</v>
+        <v>4.7992624421040508</v>
       </c>
       <c r="F13" s="0">
         <v>21</v>
@@ -8104,13 +8104,13 @@
         <v>373</v>
       </c>
       <c r="C14" s="0">
-        <v>20.010772332906175</v>
+        <v>20.208765470696008</v>
       </c>
       <c r="D14" s="0">
-        <v>10.730262248024776</v>
+        <v>10.703702192955408</v>
       </c>
       <c r="E14" s="0">
-        <v>3.9019135447362836</v>
+        <v>3.8922553428928768</v>
       </c>
       <c r="F14" s="0">
         <v>20</v>
@@ -8130,13 +8130,13 @@
         <v>110</v>
       </c>
       <c r="C15" s="0">
-        <v>16.022509689969823</v>
+        <v>15.980784404318861</v>
       </c>
       <c r="D15" s="0">
-        <v>25.228288113474264</v>
+        <v>25.423006113178758</v>
       </c>
       <c r="E15" s="0">
-        <v>7.1211154177643543</v>
+        <v>7.1025708463639257</v>
       </c>
       <c r="F15" s="0">
         <v>16</v>
@@ -8156,13 +8156,13 @@
         <v>405</v>
       </c>
       <c r="C16" s="0">
-        <v>19.981015298646636</v>
+        <v>20.378131848033011</v>
       </c>
       <c r="D16" s="0">
-        <v>6.8308889379204087</v>
+        <v>6.7969887446801085</v>
       </c>
       <c r="E16" s="0">
-        <v>6.8308889379204087</v>
+        <v>6.7969887446801085</v>
       </c>
       <c r="F16" s="0">
         <v>20</v>
@@ -8182,13 +8182,13 @@
         <v>417</v>
       </c>
       <c r="C17" s="0">
-        <v>20.057365741647402</v>
+        <v>20.255243549217582</v>
       </c>
       <c r="D17" s="0">
-        <v>8.7741915649411464</v>
+        <v>8.7524732689883233</v>
       </c>
       <c r="E17" s="0">
-        <v>7.7992813910587921</v>
+        <v>7.7799762391007254</v>
       </c>
       <c r="F17" s="0">
         <v>20</v>
@@ -8208,13 +8208,13 @@
         <v>95</v>
       </c>
       <c r="C18" s="0">
-        <v>16.099146806885972</v>
+        <v>16.013055112731504</v>
       </c>
       <c r="D18" s="0">
-        <v>27.130177610937054</v>
+        <v>27.519855805530966</v>
       </c>
       <c r="E18" s="0">
-        <v>5.0839410969113477</v>
+        <v>5.0567542461257258</v>
       </c>
       <c r="F18" s="0">
         <v>16</v>
@@ -8234,13 +8234,13 @@
         <v>174</v>
       </c>
       <c r="C19" s="0">
-        <v>16.821744410946245</v>
+        <v>16.776280236862608</v>
       </c>
       <c r="D19" s="0">
-        <v>28.286247511229085</v>
+        <v>28.480068463901436</v>
       </c>
       <c r="E19" s="0">
-        <v>7.0828397519773789</v>
+        <v>7.0636969418368993</v>
       </c>
       <c r="F19" s="0">
         <v>17</v>
@@ -8254,19 +8254,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B20" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0">
-        <v>20.248796445804164</v>
+        <v>20.605450885384478</v>
       </c>
       <c r="D20" s="0">
-        <v>4.9229137996417176</v>
+        <v>4.9008980934947832</v>
       </c>
       <c r="E20" s="0">
-        <v>3.9383310397133755</v>
+        <v>2.9405388560968686</v>
       </c>
       <c r="F20" s="0">
         <v>20</v>
@@ -8275,33 +8275,33 @@
         <v>5</v>
       </c>
       <c r="H20" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B21" s="0">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C21" s="0">
-        <v>16.878468581203126</v>
+        <v>20.647552463575149</v>
       </c>
       <c r="D21" s="0">
-        <v>27.156082965333958</v>
+        <v>4.8982992306435085</v>
       </c>
       <c r="E21" s="0">
-        <v>7.9950640647804416</v>
+        <v>3.9186393845148082</v>
       </c>
       <c r="F21" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G21" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H21" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -8312,13 +8312,13 @@
         <v>361</v>
       </c>
       <c r="C22" s="0">
-        <v>20.013868420625045</v>
+        <v>20.406920664258337</v>
       </c>
       <c r="D22" s="0">
-        <v>14.812246588773139</v>
+        <v>14.739459136248454</v>
       </c>
       <c r="E22" s="0">
-        <v>2.9624493177546283</v>
+        <v>2.9478918272496921</v>
       </c>
       <c r="F22" s="0">
         <v>20</v>
@@ -8332,184 +8332,184 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="B23" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C23" s="0">
-        <v>20.228549482243452</v>
+        <v>16.833579037104183</v>
       </c>
       <c r="D23" s="0">
-        <v>10.833159946855826</v>
+        <v>27.349816787234666</v>
       </c>
       <c r="E23" s="0">
-        <v>3.9393308897657557</v>
+        <v>7.9738005965230467</v>
       </c>
       <c r="F23" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G23" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H23" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B24" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C24" s="0">
-        <v>18.112144258196512</v>
+        <v>20.42649352819322</v>
       </c>
       <c r="D24" s="0">
-        <v>15.158903211605793</v>
+        <v>10.806278656665118</v>
       </c>
       <c r="E24" s="0">
-        <v>2.8598122512941879</v>
+        <v>3.9295558751509523</v>
       </c>
       <c r="F24" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="B25" s="0">
-        <v>354</v>
+        <v>191</v>
       </c>
       <c r="C25" s="0">
-        <v>19.044173746696046</v>
+        <v>18.028678155624178</v>
       </c>
       <c r="D25" s="0">
-        <v>27.230717974558097</v>
+        <v>15.549876007865674</v>
       </c>
       <c r="E25" s="0">
-        <v>10.915392303816267</v>
+        <v>2.8466333929932932</v>
       </c>
       <c r="F25" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="B26" s="0">
-        <v>87</v>
+        <v>354</v>
       </c>
       <c r="C26" s="0">
-        <v>16.082715440772741</v>
+        <v>19.340173111424768</v>
       </c>
       <c r="D26" s="0">
-        <v>25.215373200406841</v>
+        <v>27.496784819258068</v>
       </c>
       <c r="E26" s="0">
-        <v>4.0206788601931853</v>
+        <v>10.875482277111271</v>
       </c>
       <c r="F26" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G26" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H26" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B27" s="0">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0">
-        <v>20.027565556218377</v>
+        <v>16.040724016645399</v>
       </c>
       <c r="D27" s="0">
-        <v>25.670164142448417</v>
+        <v>25.41063332259899</v>
       </c>
       <c r="E27" s="0">
-        <v>5.9238840328727127</v>
+        <v>4.0101810041613497</v>
       </c>
       <c r="F27" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G27" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>949</v>
+        <v>319</v>
       </c>
       <c r="B28" s="0">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="C28" s="0">
-        <v>20.746121473759239</v>
+        <v>20.217523832806929</v>
       </c>
       <c r="D28" s="0">
-        <v>6.7424894789717458</v>
+        <v>25.609189880827401</v>
       </c>
       <c r="E28" s="0">
-        <v>2.8525917026418885</v>
+        <v>5.9098130494217083</v>
       </c>
       <c r="F28" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="0">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H28" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>330</v>
+        <v>949</v>
       </c>
       <c r="B29" s="0">
-        <v>166</v>
+        <v>445</v>
       </c>
       <c r="C29" s="0">
-        <v>16.926048801841731</v>
+        <v>20.557520369452337</v>
       </c>
       <c r="D29" s="0">
-        <v>15.369755990791191</v>
+        <v>6.6811941200720026</v>
       </c>
       <c r="E29" s="0">
-        <v>7.1267573902491819</v>
+        <v>2.8266590507996896</v>
       </c>
       <c r="F29" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G29" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H29" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -8520,13 +8520,13 @@
         <v>489</v>
       </c>
       <c r="C30" s="0">
-        <v>21.055088559659566</v>
+        <v>21.452795922079417</v>
       </c>
       <c r="D30" s="0">
-        <v>4.9340569650212744</v>
+        <v>4.9092002548700338</v>
       </c>
       <c r="E30" s="0">
-        <v>6.9076797510297858</v>
+        <v>6.8728803568180483</v>
       </c>
       <c r="F30" s="0">
         <v>21</v>
@@ -8540,103 +8540,103 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="B31" s="0">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="C31" s="0">
-        <v>16.02540232484624</v>
+        <v>16.886958619851335</v>
       </c>
       <c r="D31" s="0">
-        <v>28.267246736402896</v>
+        <v>15.565206900743174</v>
       </c>
       <c r="E31" s="0">
-        <v>3.8155719821062508</v>
+        <v>7.1102983662532253</v>
       </c>
       <c r="F31" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="0">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H31" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>120</v>
+        <v>466</v>
       </c>
       <c r="B32" s="0">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="C32" s="0">
-        <v>19.15551477469911</v>
+        <v>15.981855035920027</v>
       </c>
       <c r="D32" s="0">
-        <v>26.947754314487206</v>
+        <v>28.462172696358326</v>
       </c>
       <c r="E32" s="0">
-        <v>2.9220898274205149</v>
+        <v>3.8052035799809625</v>
       </c>
       <c r="F32" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G32" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B33" s="0">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="C33" s="0">
-        <v>10.277368379479014</v>
+        <v>19.303853279699659</v>
       </c>
       <c r="D33" s="0">
-        <v>25.066813152092376</v>
+        <v>27.08179513225879</v>
       </c>
       <c r="E33" s="0">
-        <v>10.845592833249789</v>
+        <v>2.9167281947096519</v>
       </c>
       <c r="F33" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G33" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H33" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0">
-        <v>10.006078921436956</v>
+        <v>10.430217837094894</v>
       </c>
       <c r="D34" s="0">
-        <v>19.283802743969197</v>
+        <v>25.19446764416718</v>
       </c>
       <c r="E34" s="0">
-        <v>11.13326858703871</v>
+        <v>10.82711652518633</v>
       </c>
       <c r="F34" s="0">
         <v>10</v>
       </c>
       <c r="G34" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H34" s="0">
         <v>11</v>
@@ -8644,51 +8644,51 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>482</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="C35" s="0">
-        <v>17.953090341432748</v>
+        <v>19.204413855683299</v>
       </c>
       <c r="D35" s="0">
-        <v>28.187638634269021</v>
+        <v>16.376955286350313</v>
       </c>
       <c r="E35" s="0">
-        <v>5.129454383266479</v>
+        <v>10.772744819242194</v>
       </c>
       <c r="F35" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H35" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B36" s="0">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="C36" s="0">
-        <v>17.948959095717658</v>
+        <v>10.302599254479995</v>
       </c>
       <c r="D36" s="0">
-        <v>15.097966386805698</v>
+        <v>19.549753970512953</v>
       </c>
       <c r="E36" s="0">
-        <v>10.940138787237611</v>
+        <v>11.096585659239571</v>
       </c>
       <c r="F36" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G36" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H36" s="0">
         <v>11</v>
@@ -8696,74 +8696,74 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="B37" s="0">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="C37" s="0">
-        <v>5.2605399290824959</v>
+        <v>17.904699262345328</v>
       </c>
       <c r="D37" s="0">
-        <v>21.050449940902091</v>
+        <v>28.3812029506187</v>
       </c>
       <c r="E37" s="0">
-        <v>10.85556313312596</v>
+        <v>5.1156283606700734</v>
       </c>
       <c r="F37" s="0">
+        <v>18</v>
+      </c>
+      <c r="G37" s="0">
+        <v>28</v>
+      </c>
+      <c r="H37" s="0">
         <v>5</v>
-      </c>
-      <c r="G37" s="0">
-        <v>21</v>
-      </c>
-      <c r="H37" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>467</v>
+        <v>351</v>
       </c>
       <c r="B38" s="0">
-        <v>525</v>
+        <v>273</v>
       </c>
       <c r="C38" s="0">
-        <v>22.105848537888704</v>
+        <v>18.382865833574101</v>
       </c>
       <c r="D38" s="0">
-        <v>10.846021089661066</v>
+        <v>15.281231323752369</v>
       </c>
       <c r="E38" s="0">
-        <v>4.9300095862095743</v>
+        <v>11.066474906032672</v>
       </c>
       <c r="F38" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G38" s="0">
+        <v>15</v>
+      </c>
+      <c r="H38" s="0">
         <v>11</v>
-      </c>
-      <c r="H38" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="B39" s="0">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C39" s="0">
-        <v>5.1767554038780652</v>
+        <v>12.41352517314332</v>
       </c>
       <c r="D39" s="0">
-        <v>20.980629503231732</v>
+        <v>21.243054906154303</v>
       </c>
       <c r="E39" s="0">
-        <v>11.852905574515239</v>
+        <v>11.822381067969399</v>
       </c>
       <c r="F39" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G39" s="0">
         <v>21</v>
@@ -8774,129 +8774,129 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>358</v>
+        <v>494</v>
       </c>
       <c r="B40" s="0">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="C40" s="0">
-        <v>19.080936490045843</v>
+        <v>17.931333705306546</v>
       </c>
       <c r="D40" s="0">
-        <v>11.273645321286754</v>
+        <v>27.420792145188123</v>
       </c>
       <c r="E40" s="0">
-        <v>2.8621404735068761</v>
+        <v>5.9771112351021838</v>
       </c>
       <c r="F40" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H40" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>479</v>
+        <v>16</v>
       </c>
       <c r="B41" s="0">
-        <v>533</v>
+        <v>23</v>
       </c>
       <c r="C41" s="0">
-        <v>21.975307689227375</v>
+        <v>5.5666448081484621</v>
       </c>
       <c r="D41" s="0">
-        <v>10.864197663525303</v>
+        <v>21.305537340123731</v>
       </c>
       <c r="E41" s="0">
-        <v>5.9259259982865284</v>
+        <v>10.820488615732984</v>
       </c>
       <c r="F41" s="0">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G41" s="0">
+        <v>21</v>
+      </c>
+      <c r="H41" s="0">
         <v>11</v>
-      </c>
-      <c r="H41" s="0">
-        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="B42" s="0">
-        <v>378</v>
+        <v>525</v>
       </c>
       <c r="C42" s="0">
-        <v>20.120923379074043</v>
+        <v>22.303549429924523</v>
       </c>
       <c r="D42" s="0">
-        <v>18.196126352063796</v>
+        <v>10.818493117352283</v>
       </c>
       <c r="E42" s="0">
-        <v>3.8495940540205296</v>
+        <v>4.9174968715237632</v>
       </c>
       <c r="F42" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H42" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B43" s="0">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="C43" s="0">
-        <v>18.24760474222964</v>
+        <v>5.3296961209685838</v>
       </c>
       <c r="D43" s="0">
-        <v>26.127353682737635</v>
+        <v>21.108080100807168</v>
       </c>
       <c r="E43" s="0">
-        <v>6.8947803229444862</v>
+        <v>11.833787984878922</v>
       </c>
       <c r="F43" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G43" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H43" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="B44" s="0">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0">
-        <v>20.188216148490145</v>
+        <v>18.99687950110291</v>
       </c>
       <c r="D44" s="0">
-        <v>27.001417208984968</v>
+        <v>11.664510319871393</v>
       </c>
       <c r="E44" s="0">
-        <v>2.9199433116406048</v>
+        <v>2.8495319251654361</v>
       </c>
       <c r="F44" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H44" s="0">
         <v>3</v>
@@ -8904,207 +8904,207 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="B45" s="0">
-        <v>206</v>
+        <v>533</v>
       </c>
       <c r="C45" s="0">
-        <v>18.174556905232457</v>
+        <v>22.370369422446476</v>
       </c>
       <c r="D45" s="0">
-        <v>16.221483635728539</v>
+        <v>10.809189067760618</v>
       </c>
       <c r="E45" s="0">
-        <v>3.9981597360589776</v>
+        <v>5.8959213096876084</v>
       </c>
       <c r="F45" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G45" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H45" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="B46" s="0">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="C46" s="0">
-        <v>17.843841036735103</v>
+        <v>20.400220849776581</v>
       </c>
       <c r="D46" s="0">
-        <v>20.127568692709019</v>
+        <v>18.482153882301336</v>
       </c>
       <c r="E46" s="0">
-        <v>5.0982402962100615</v>
+        <v>3.8361339349505279</v>
       </c>
       <c r="F46" s="0">
+        <v>20</v>
+      </c>
+      <c r="G46" s="0">
         <v>18</v>
       </c>
-      <c r="G46" s="0">
-        <v>20</v>
-      </c>
       <c r="H46" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B47" s="0">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C47" s="0">
-        <v>18.157261138722102</v>
+        <v>18.395706907551688</v>
       </c>
       <c r="D47" s="0">
-        <v>19.143318233436247</v>
+        <v>26.261180940558763</v>
       </c>
       <c r="E47" s="0">
-        <v>5.9163425682851516</v>
+        <v>6.8822897788811801</v>
       </c>
       <c r="F47" s="0">
         <v>18</v>
       </c>
       <c r="G47" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H47" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>522</v>
+        <v>196</v>
       </c>
       <c r="B48" s="0">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="C48" s="0">
-        <v>17.754617666964954</v>
+        <v>20.483268953856165</v>
       </c>
       <c r="D48" s="0">
-        <v>23.332332801741813</v>
+        <v>27.271282579746583</v>
       </c>
       <c r="E48" s="0">
-        <v>4.0351403788556937</v>
+        <v>2.9091486968101408</v>
       </c>
       <c r="F48" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H48" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="B49" s="0">
-        <v>569</v>
+        <v>206</v>
       </c>
       <c r="C49" s="0">
-        <v>19.109274870229711</v>
+        <v>18.451806778823538</v>
       </c>
       <c r="D49" s="0">
-        <v>19.109274870229711</v>
+        <v>16.509810392900242</v>
       </c>
       <c r="E49" s="0">
-        <v>6.8221093482938793</v>
+        <v>3.9977253484675805</v>
       </c>
       <c r="F49" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H49" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>653</v>
+        <v>478</v>
       </c>
       <c r="B50" s="0">
-        <v>649</v>
+        <v>221</v>
       </c>
       <c r="C50" s="0">
-        <v>64.789051180770656</v>
+        <v>17.800319473230871</v>
       </c>
       <c r="D50" s="0">
-        <v>3.9266091624709496</v>
+        <v>20.322379500775583</v>
       </c>
       <c r="E50" s="0">
-        <v>10.798175196795107</v>
+        <v>5.0858055637802808</v>
       </c>
       <c r="F50" s="0">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G50" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H50" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B51" s="0">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="C51" s="0">
-        <v>18.922176562272217</v>
+        <v>18.441437315323768</v>
       </c>
       <c r="D51" s="0">
-        <v>9.1537640998953016</v>
+        <v>19.424070600681254</v>
       </c>
       <c r="E51" s="0">
-        <v>2.9305237387130543</v>
+        <v>5.8957997121452728</v>
       </c>
       <c r="F51" s="0">
+        <v>18</v>
+      </c>
+      <c r="G51" s="0">
         <v>19</v>
       </c>
-      <c r="G51" s="0">
-        <v>9</v>
-      </c>
       <c r="H51" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="B52" s="0">
-        <v>411</v>
+        <v>569</v>
       </c>
       <c r="C52" s="0">
-        <v>20.257774453970814</v>
+        <v>19.391615970159101</v>
       </c>
       <c r="D52" s="0">
-        <v>25.120105279948184</v>
+        <v>19.391615970159101</v>
       </c>
       <c r="E52" s="0">
-        <v>6.8072631563683483</v>
+        <v>6.7982974482998344</v>
       </c>
       <c r="F52" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H52" s="0">
         <v>7</v>
@@ -9112,25 +9112,25 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="B53" s="0">
-        <v>458</v>
+        <v>210</v>
       </c>
       <c r="C53" s="0">
-        <v>21.100071691792692</v>
+        <v>17.709555185576718</v>
       </c>
       <c r="D53" s="0">
-        <v>17.251294701148488</v>
+        <v>23.526920789554651</v>
       </c>
       <c r="E53" s="0">
-        <v>3.8487769906442555</v>
+        <v>4.024898905812913</v>
       </c>
       <c r="F53" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G53" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H53" s="0">
         <v>4</v>
@@ -9138,181 +9138,181 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>192</v>
+        <v>653</v>
       </c>
       <c r="B54" s="0">
-        <v>285</v>
+        <v>649</v>
       </c>
       <c r="C54" s="0">
-        <v>19.135849974782236</v>
+        <v>64.592123973534271</v>
       </c>
       <c r="D54" s="0">
-        <v>17.163553632703682</v>
+        <v>3.9146741802141989</v>
       </c>
       <c r="E54" s="0">
-        <v>2.9584445131177244</v>
+        <v>10.765353995589043</v>
       </c>
       <c r="F54" s="0">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G54" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H54" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1141</v>
+        <v>454</v>
       </c>
       <c r="B55" s="0">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="C55" s="0">
-        <v>19.777380359461009</v>
+        <v>19.960359976680621</v>
       </c>
       <c r="D55" s="0">
-        <v>5.0039155126347108</v>
+        <v>15.406093432162962</v>
       </c>
       <c r="E55" s="0">
-        <v>2.8593802929341239</v>
+        <v>3.8019733288915507</v>
       </c>
       <c r="F55" s="0">
         <v>20</v>
       </c>
       <c r="G55" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H55" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="B56" s="0">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C56" s="0">
-        <v>19.155063294913266</v>
+        <v>19.188441992281181</v>
       </c>
       <c r="D56" s="0">
-        <v>19.155063294913266</v>
+        <v>9.4521097021944911</v>
       </c>
       <c r="E56" s="0">
-        <v>3.9436554490286229</v>
+        <v>2.9208996870259836</v>
       </c>
       <c r="F56" s="0">
         <v>19</v>
       </c>
       <c r="G56" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H56" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="B57" s="0">
-        <v>202</v>
+        <v>411</v>
       </c>
       <c r="C57" s="0">
-        <v>18.1418064274744</v>
+        <v>20.403289464091305</v>
       </c>
       <c r="D57" s="0">
-        <v>8.2793734669291812</v>
+        <v>25.256747423597915</v>
       </c>
       <c r="E57" s="0">
-        <v>3.9449731842180999</v>
+        <v>6.7948411433092826</v>
       </c>
       <c r="F57" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G57" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H57" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="B58" s="0">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C58" s="0">
-        <v>21.223188644244786</v>
+        <v>21.23800862939445</v>
       </c>
       <c r="D58" s="0">
-        <v>27.05850800393041</v>
+        <v>17.395960269852775</v>
       </c>
       <c r="E58" s="0">
-        <v>2.9176596798427821</v>
+        <v>3.8420483595417307</v>
       </c>
       <c r="F58" s="0">
         <v>21</v>
       </c>
       <c r="G58" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H58" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="B59" s="0">
-        <v>463</v>
+        <v>285</v>
       </c>
       <c r="C59" s="0">
-        <v>21.245788086505449</v>
+        <v>19.275511719212666</v>
       </c>
       <c r="D59" s="0">
-        <v>27.079433413430962</v>
+        <v>17.306621761144605</v>
       </c>
       <c r="E59" s="0">
-        <v>3.8890968846170177</v>
+        <v>2.9533349371019768</v>
       </c>
       <c r="F59" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G59" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H59" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="B60" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C60" s="0">
-        <v>19.036902771544582</v>
+        <v>19.437737898777211</v>
       </c>
       <c r="D60" s="0">
-        <v>15.082946188908521</v>
+        <v>19.437737898777211</v>
       </c>
       <c r="E60" s="0">
-        <v>3.9982290993321552</v>
+        <v>3.929866443962089</v>
       </c>
       <c r="F60" s="0">
         <v>19</v>
       </c>
       <c r="G60" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H60" s="0">
         <v>4</v>
@@ -9320,363 +9320,363 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>256</v>
+        <v>1141</v>
       </c>
       <c r="B61" s="0">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="C61" s="0">
-        <v>19.157701705073663</v>
+        <v>19.585366957912843</v>
       </c>
       <c r="D61" s="0">
-        <v>19.157701705073663</v>
+        <v>4.9553338086285486</v>
       </c>
       <c r="E61" s="0">
-        <v>7.8870534921879356</v>
+        <v>2.8316193192163168</v>
       </c>
       <c r="F61" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G61" s="0">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H61" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="B62" s="0">
-        <v>526</v>
+        <v>202</v>
       </c>
       <c r="C62" s="0">
-        <v>22.096337852416148</v>
+        <v>18.274909181250862</v>
       </c>
       <c r="D62" s="0">
-        <v>23.05811145917653</v>
+        <v>8.4285126970642565</v>
       </c>
       <c r="E62" s="0">
-        <v>4.8088680338014624</v>
+        <v>3.9385585936746557</v>
       </c>
       <c r="F62" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G62" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H62" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="B63" s="0">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="C63" s="0">
-        <v>20.234826512972091</v>
+        <v>21.369886616974309</v>
       </c>
       <c r="D63" s="0">
-        <v>28.112868338851438</v>
+        <v>27.194339460161451</v>
       </c>
       <c r="E63" s="0">
-        <v>6.8932865976443845</v>
+        <v>2.9122264215935401</v>
       </c>
       <c r="F63" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H63" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B64" s="0">
-        <v>181</v>
+        <v>463</v>
       </c>
       <c r="C64" s="0">
-        <v>19.136134210518094</v>
+        <v>21.539099862719581</v>
       </c>
       <c r="D64" s="0">
-        <v>18.149989505768268</v>
+        <v>27.35101839140701</v>
       </c>
       <c r="E64" s="0">
-        <v>8.8753023427480144</v>
+        <v>3.8746123524582958</v>
       </c>
       <c r="F64" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G64" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H64" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="B65" s="0">
-        <v>437</v>
+        <v>297</v>
       </c>
       <c r="C65" s="0">
-        <v>19.958179158808917</v>
+        <v>19.175219716876867</v>
       </c>
       <c r="D65" s="0">
-        <v>18.00593962609695</v>
+        <v>15.227405064822156</v>
       </c>
       <c r="E65" s="0">
-        <v>9.7611976635599014</v>
+        <v>3.9979928712328725</v>
       </c>
       <c r="F65" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H65" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="B66" s="0">
-        <v>609</v>
+        <v>174</v>
       </c>
       <c r="C66" s="0">
-        <v>19.053776657300279</v>
+        <v>19.439873775911096</v>
       </c>
       <c r="D66" s="0">
-        <v>7.2079878754417646</v>
+        <v>19.439873775911096</v>
       </c>
       <c r="E66" s="0">
-        <v>3.9485962606194991</v>
+        <v>7.8595245096672102</v>
       </c>
       <c r="F66" s="0">
         <v>19</v>
       </c>
       <c r="G66" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H66" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B67" s="0">
-        <v>363</v>
+        <v>526</v>
       </c>
       <c r="C67" s="0">
-        <v>20.061994959006597</v>
+        <v>22.380657787261342</v>
       </c>
       <c r="D67" s="0">
-        <v>17.101328105636412</v>
+        <v>23.338921271369323</v>
       </c>
       <c r="E67" s="0">
-        <v>2.9606668533701268</v>
+        <v>4.7913174205394133</v>
       </c>
       <c r="F67" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G67" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H67" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="B68" s="0">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="C68" s="0">
-        <v>21.060809512975126</v>
+        <v>20.38308891722307</v>
       </c>
       <c r="D68" s="0">
-        <v>16.188019976739</v>
+        <v>28.246487542682569</v>
       </c>
       <c r="E68" s="0">
-        <v>3.8982316289888836</v>
+        <v>6.8804737972770162</v>
       </c>
       <c r="F68" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H68" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="B69" s="0">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="C69" s="0">
-        <v>22.120567868788427</v>
+        <v>21.145084853609085</v>
       </c>
       <c r="D69" s="0">
-        <v>27.961525278629225</v>
+        <v>14.458520364945116</v>
       </c>
       <c r="E69" s="0">
-        <v>4.8674645082007189</v>
+        <v>3.8445608824743802</v>
       </c>
       <c r="F69" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H69" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>457</v>
+        <v>268</v>
       </c>
       <c r="B70" s="0">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="C70" s="0">
-        <v>20.216149471352956</v>
+        <v>20.236585492169585</v>
       </c>
       <c r="D70" s="0">
-        <v>15.228256176177714</v>
+        <v>18.291136357832269</v>
       </c>
       <c r="E70" s="0">
-        <v>3.9903146361401896</v>
+        <v>9.7272456716866511</v>
       </c>
       <c r="F70" s="0">
         <v>20</v>
       </c>
       <c r="G70" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H70" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>529</v>
+        <v>264</v>
       </c>
       <c r="B71" s="0">
-        <v>475</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0">
-        <v>21.191136494840734</v>
+        <v>19.276279558506797</v>
       </c>
       <c r="D71" s="0">
-        <v>27.174603628411433</v>
+        <v>18.291843943366583</v>
       </c>
       <c r="E71" s="0">
-        <v>4.9862226113089152</v>
+        <v>8.8599205362614484</v>
       </c>
       <c r="F71" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G71" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H71" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="B72" s="0">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="C72" s="0">
-        <v>22.052458644583567</v>
+        <v>19.185182864025442</v>
       </c>
       <c r="D72" s="0">
-        <v>27.898524246239766</v>
+        <v>7.3586242587608526</v>
       </c>
       <c r="E72" s="0">
-        <v>6.8204098685989418</v>
+        <v>3.9421862017548572</v>
       </c>
       <c r="F72" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G72" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H72" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="B73" s="0">
-        <v>1115</v>
+        <v>663</v>
       </c>
       <c r="C73" s="0">
-        <v>83.159121302865756</v>
+        <v>69.650895415033673</v>
       </c>
       <c r="D73" s="0">
-        <v>28.043518294060949</v>
+        <v>24.744397055340922</v>
       </c>
       <c r="E73" s="0">
-        <v>3.8274724311669672</v>
+        <v>10.081050652175922</v>
       </c>
       <c r="F73" s="0">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G73" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H73" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B74" s="0">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="C74" s="0">
-        <v>20.946983333234453</v>
+        <v>20.339557476510059</v>
       </c>
       <c r="D74" s="0">
-        <v>9.2354253085283808</v>
+        <v>17.389170716380725</v>
       </c>
       <c r="E74" s="0">
-        <v>2.9278895061765051</v>
+        <v>2.9503867601292582</v>
       </c>
       <c r="F74" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H74" s="0">
         <v>3</v>
@@ -9684,77 +9684,77 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="B75" s="0">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="C75" s="0">
-        <v>21.177803166813288</v>
+        <v>21.19785671868177</v>
       </c>
       <c r="D75" s="0">
-        <v>27.062052749900417</v>
+        <v>16.333526886501605</v>
       </c>
       <c r="E75" s="0">
-        <v>6.9894306156635544</v>
+        <v>3.891463865744111</v>
       </c>
       <c r="F75" s="0">
         <v>21</v>
       </c>
       <c r="G75" s="0">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H75" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="B76" s="0">
-        <v>442</v>
+        <v>529</v>
       </c>
       <c r="C76" s="0">
-        <v>20.178298387354605</v>
+        <v>22.267233466022347</v>
       </c>
       <c r="D76" s="0">
-        <v>18.207392174696704</v>
+        <v>28.097190956070598</v>
       </c>
       <c r="E76" s="0">
-        <v>10.839984169618511</v>
+        <v>4.858297908373598</v>
       </c>
       <c r="F76" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G76" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H76" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="B77" s="0">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="C77" s="0">
-        <v>20.010699330277937</v>
+        <v>20.35686645780412</v>
       </c>
       <c r="D77" s="0">
-        <v>7.1729103339027809</v>
+        <v>15.370373992920651</v>
       </c>
       <c r="E77" s="0">
-        <v>3.9500889219615836</v>
+        <v>3.9891939719067717</v>
       </c>
       <c r="F77" s="0">
         <v>20</v>
       </c>
       <c r="G77" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H77" s="0">
         <v>4</v>
@@ -9762,25 +9762,25 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>737</v>
+        <v>529</v>
       </c>
       <c r="B78" s="0">
-        <v>691</v>
+        <v>475</v>
       </c>
       <c r="C78" s="0">
-        <v>76.882974338783683</v>
+        <v>21.333537861022553</v>
       </c>
       <c r="D78" s="0">
-        <v>10.842470740084881</v>
+        <v>27.315028476556375</v>
       </c>
       <c r="E78" s="0">
-        <v>4.9283957909476754</v>
+        <v>4.9845755129448515</v>
       </c>
       <c r="F78" s="0">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G78" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H78" s="0">
         <v>5</v>
@@ -9788,181 +9788,181 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="B79" s="0">
-        <v>204</v>
+        <v>545</v>
       </c>
       <c r="C79" s="0">
-        <v>21.150312878585513</v>
+        <v>22.345494514340771</v>
       </c>
       <c r="D79" s="0">
-        <v>17.207828522514749</v>
+        <v>28.169582425765178</v>
       </c>
       <c r="E79" s="0">
-        <v>3.9424843560707261</v>
+        <v>6.7947692299951878</v>
       </c>
       <c r="F79" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="0">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H79" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="B80" s="0">
-        <v>995</v>
+        <v>1115</v>
       </c>
       <c r="C80" s="0">
-        <v>81.117061064796502</v>
+        <v>83.204637191236401</v>
       </c>
       <c r="D80" s="0">
-        <v>27.043190477623682</v>
+        <v>28.237995271644564</v>
       </c>
       <c r="E80" s="0">
-        <v>6.008207843019246</v>
+        <v>3.8171279110827321</v>
       </c>
       <c r="F80" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G80" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H80" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="B81" s="0">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="C81" s="0">
-        <v>20.969285783469978</v>
+        <v>21.209617940100788</v>
       </c>
       <c r="D81" s="0">
-        <v>7.3096561657980645</v>
+        <v>9.5369687460415733</v>
       </c>
       <c r="E81" s="0">
-        <v>6.8298148088359225</v>
+        <v>2.9181622985147895</v>
       </c>
       <c r="F81" s="0">
         <v>21</v>
       </c>
       <c r="G81" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H81" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="B82" s="0">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C82" s="0">
-        <v>21.06343154639735</v>
+        <v>21.235323342924218</v>
       </c>
       <c r="D82" s="0">
-        <v>15.143188912377152</v>
+        <v>27.225821434704109</v>
       </c>
       <c r="E82" s="0">
-        <v>4.9335355283501663</v>
+        <v>6.9889144404098742</v>
       </c>
       <c r="F82" s="0">
         <v>21</v>
       </c>
       <c r="G82" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H82" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>785</v>
+        <v>352</v>
       </c>
       <c r="B83" s="0">
-        <v>713</v>
+        <v>442</v>
       </c>
       <c r="C83" s="0">
-        <v>77.788398237772725</v>
+        <v>20.317360585286043</v>
       </c>
       <c r="D83" s="0">
-        <v>4.923316344162834</v>
+        <v>18.349888007144969</v>
       </c>
       <c r="E83" s="0">
-        <v>2.9539898064976988</v>
+        <v>10.821099179775969</v>
       </c>
       <c r="F83" s="0">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G83" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H83" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>776</v>
+        <v>292</v>
       </c>
       <c r="B84" s="0">
-        <v>1003</v>
+        <v>371</v>
       </c>
       <c r="C84" s="0">
-        <v>81.018649145922367</v>
+        <v>20.271675841435268</v>
       </c>
       <c r="D84" s="0">
-        <v>23.211807908503744</v>
+        <v>7.4757719641347418</v>
       </c>
       <c r="E84" s="0">
-        <v>6.9023094014828148</v>
+        <v>3.9372011930155426</v>
       </c>
       <c r="F84" s="0">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G84" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H84" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>684</v>
+        <v>376</v>
       </c>
       <c r="B85" s="0">
-        <v>725</v>
+        <v>204</v>
       </c>
       <c r="C85" s="0">
-        <v>77.802622408608741</v>
+        <v>21.426011085303749</v>
       </c>
       <c r="D85" s="0">
-        <v>14.105799755051052</v>
+        <v>17.497311639568888</v>
       </c>
       <c r="E85" s="0">
-        <v>3.8604134941550079</v>
+        <v>3.9286994457348148</v>
       </c>
       <c r="F85" s="0">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G85" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H85" s="0">
         <v>4</v>
@@ -9970,779 +9970,779 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>372</v>
+        <v>737</v>
       </c>
       <c r="B86" s="0">
-        <v>453</v>
+        <v>691</v>
       </c>
       <c r="C86" s="0">
-        <v>20.907404204455212</v>
+        <v>76.68533173122897</v>
       </c>
       <c r="D86" s="0">
-        <v>9.0435148351235153</v>
+        <v>10.814598064660499</v>
       </c>
       <c r="E86" s="0">
-        <v>3.9546297897772398</v>
+        <v>4.9157263930275024</v>
       </c>
       <c r="F86" s="0">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G86" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H86" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="B87" s="0">
-        <v>721</v>
+        <v>995</v>
       </c>
       <c r="C87" s="0">
-        <v>77.745046553528312</v>
+        <v>81.216970794612394</v>
       </c>
       <c r="D87" s="0">
-        <v>4.9205725666790068</v>
+        <v>27.429205342821447</v>
       </c>
       <c r="E87" s="0">
-        <v>3.9364580533432068</v>
+        <v>5.9764183835323719</v>
       </c>
       <c r="F87" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G87" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H87" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>813</v>
+        <v>749</v>
       </c>
       <c r="B88" s="0">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="C88" s="0">
-        <v>77.888618656575588</v>
+        <v>76.617721518987295</v>
       </c>
       <c r="D88" s="0">
-        <v>4.9296594086440253</v>
+        <v>10.805063291139239</v>
       </c>
       <c r="E88" s="0">
-        <v>4.9296594086440253</v>
+        <v>5.8936708860759479</v>
       </c>
       <c r="F88" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G88" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H88" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>724</v>
+        <v>320</v>
       </c>
       <c r="B89" s="0">
-        <v>803</v>
+        <v>490</v>
       </c>
       <c r="C89" s="0">
-        <v>78.99875926104113</v>
+        <v>21.228402879261878</v>
       </c>
       <c r="D89" s="0">
-        <v>15.04043519239417</v>
+        <v>7.6135589324675719</v>
       </c>
       <c r="E89" s="0">
-        <v>3.8184074070834133</v>
+        <v>6.8074219733971155</v>
       </c>
       <c r="F89" s="0">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G89" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H89" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B90" s="0">
-        <v>320</v>
+        <v>469</v>
       </c>
       <c r="C90" s="0">
-        <v>21.056369307240942</v>
+        <v>21.199529078213903</v>
       </c>
       <c r="D90" s="0">
-        <v>7.2412339360081424</v>
+        <v>15.289493759079948</v>
       </c>
       <c r="E90" s="0">
-        <v>6.9075676856164145</v>
+        <v>4.9250294326116322</v>
       </c>
       <c r="F90" s="0">
         <v>21</v>
       </c>
       <c r="G90" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H90" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>829</v>
+        <v>408</v>
       </c>
       <c r="B91" s="0">
-        <v>755</v>
+        <v>235</v>
       </c>
       <c r="C91" s="0">
-        <v>77.958686998806712</v>
+        <v>21.403837655496957</v>
       </c>
       <c r="D91" s="0">
-        <v>18.749557632624388</v>
+        <v>15.509125479659268</v>
       </c>
       <c r="E91" s="0">
-        <v>5.9209129366182305</v>
+        <v>6.8771642051440116</v>
       </c>
       <c r="F91" s="0">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G91" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H91" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>849</v>
+        <v>785</v>
       </c>
       <c r="B92" s="0">
-        <v>775</v>
+        <v>713</v>
       </c>
       <c r="C92" s="0">
-        <v>77.900250045129212</v>
+        <v>77.588940806393822</v>
       </c>
       <c r="D92" s="0">
-        <v>8.8747120304577525</v>
+        <v>4.910692456100878</v>
       </c>
       <c r="E92" s="0">
-        <v>7.8886329159624511</v>
+        <v>2.9464154736605255</v>
       </c>
       <c r="F92" s="0">
         <v>78</v>
       </c>
       <c r="G92" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H92" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>788</v>
+        <v>684</v>
       </c>
       <c r="B93" s="0">
-        <v>879</v>
+        <v>725</v>
       </c>
       <c r="C93" s="0">
-        <v>80.169011337385129</v>
+        <v>77.902610595957356</v>
       </c>
       <c r="D93" s="0">
-        <v>15.954381382251313</v>
+        <v>14.492710566965233</v>
       </c>
       <c r="E93" s="0">
-        <v>2.8329983803735548</v>
+        <v>3.8430242441813371</v>
       </c>
       <c r="F93" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G93" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H93" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>901</v>
+        <v>776</v>
       </c>
       <c r="B94" s="0">
-        <v>817</v>
+        <v>1003</v>
       </c>
       <c r="C94" s="0">
-        <v>78.653522999671125</v>
+        <v>81.066461112809208</v>
       </c>
       <c r="D94" s="0">
-        <v>13.764366524942446</v>
+        <v>23.405229047273256</v>
       </c>
       <c r="E94" s="0">
-        <v>4.9158451874794453</v>
+        <v>6.8849232317057805</v>
       </c>
       <c r="F94" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G94" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H94" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>917</v>
+        <v>372</v>
       </c>
       <c r="B95" s="0">
-        <v>837</v>
+        <v>453</v>
       </c>
       <c r="C95" s="0">
-        <v>78.798987264858781</v>
+        <v>21.169734538768793</v>
       </c>
       <c r="D95" s="0">
-        <v>6.8949113856751456</v>
+        <v>9.3451947195841374</v>
       </c>
       <c r="E95" s="0">
-        <v>6.8949113856751456</v>
+        <v>3.941513273061561</v>
       </c>
       <c r="F95" s="0">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G95" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H95" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>905</v>
+        <v>797</v>
       </c>
       <c r="B96" s="0">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C96" s="0">
-        <v>76.708164592426613</v>
+        <v>77.545700280314136</v>
       </c>
       <c r="D96" s="0">
-        <v>24.930153492538615</v>
+        <v>4.9079557139439318</v>
       </c>
       <c r="E96" s="0">
-        <v>4.7942602870266633</v>
+        <v>3.9263645711551471</v>
       </c>
       <c r="F96" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G96" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H96" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>925</v>
+        <v>724</v>
       </c>
       <c r="B97" s="0">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="C97" s="0">
-        <v>78.85361395236518</v>
+        <v>79.09465533747472</v>
       </c>
       <c r="D97" s="0">
-        <v>4.9283508720228237</v>
+        <v>15.428378410693746</v>
       </c>
       <c r="E97" s="0">
-        <v>7.8853613952365196</v>
+        <v>3.8009717568227588</v>
       </c>
       <c r="F97" s="0">
         <v>79</v>
       </c>
       <c r="G97" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H97" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>921</v>
+        <v>813</v>
       </c>
       <c r="B98" s="0">
-        <v>843</v>
+        <v>735</v>
       </c>
       <c r="C98" s="0">
-        <v>78.946985500710753</v>
+        <v>77.689415028297901</v>
       </c>
       <c r="D98" s="0">
-        <v>24.670932968972114</v>
+        <v>4.9170515840694886</v>
       </c>
       <c r="E98" s="0">
-        <v>6.9078612313121903</v>
+        <v>4.9170515840694886</v>
       </c>
       <c r="F98" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G98" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H98" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>937</v>
+        <v>404</v>
       </c>
       <c r="B99" s="0">
-        <v>863</v>
+        <v>320</v>
       </c>
       <c r="C99" s="0">
-        <v>78.940582571841361</v>
+        <v>21.31520088328277</v>
       </c>
       <c r="D99" s="0">
-        <v>17.761631078664301</v>
+        <v>7.5453610378572948</v>
       </c>
       <c r="E99" s="0">
-        <v>8.8808155393321506</v>
+        <v>6.8849199227127542</v>
       </c>
       <c r="F99" s="0">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G99" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H99" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>1016</v>
+        <v>829</v>
       </c>
       <c r="B100" s="0">
-        <v>1139</v>
+        <v>755</v>
       </c>
       <c r="C100" s="0">
-        <v>83.132791414970228</v>
+        <v>77.570832834633535</v>
       </c>
       <c r="D100" s="0">
-        <v>28.092426558556742</v>
+        <v>18.656276251367547</v>
       </c>
       <c r="E100" s="0">
-        <v>7.1019825621178487</v>
+        <v>5.8914556583265965</v>
       </c>
       <c r="F100" s="0">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G100" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H100" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>953</v>
+        <v>849</v>
       </c>
       <c r="B101" s="0">
-        <v>877</v>
+        <v>775</v>
       </c>
       <c r="C101" s="0">
-        <v>79.813167315169935</v>
+        <v>77.504817303783369</v>
       </c>
       <c r="D101" s="0">
-        <v>10.838825190949001</v>
+        <v>8.8296627308107585</v>
       </c>
       <c r="E101" s="0">
-        <v>2.9560432338951834</v>
+        <v>7.8485890940540122</v>
       </c>
       <c r="F101" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G101" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H101" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>965</v>
+        <v>788</v>
       </c>
       <c r="B102" s="0">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C102" s="0">
-        <v>79.715476610651976</v>
+        <v>80.260821470082419</v>
       </c>
       <c r="D102" s="0">
-        <v>7.8731334924100631</v>
+        <v>16.343481468444594</v>
       </c>
       <c r="E102" s="0">
-        <v>3.9365667462050316</v>
+        <v>2.8198826471310849</v>
       </c>
       <c r="F102" s="0">
         <v>80</v>
       </c>
       <c r="G102" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H102" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>961</v>
+        <v>901</v>
       </c>
       <c r="B103" s="0">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="C103" s="0">
-        <v>77.830607051925469</v>
+        <v>78.456889192171943</v>
       </c>
       <c r="D103" s="0">
-        <v>26.904407375974262</v>
+        <v>13.729955608630089</v>
       </c>
       <c r="E103" s="0">
-        <v>2.8826150759972395</v>
+        <v>4.9035555745107464</v>
       </c>
       <c r="F103" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G103" s="0">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H103" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>977</v>
+        <v>917</v>
       </c>
       <c r="B104" s="0">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="C104" s="0">
-        <v>77.793591440268372</v>
+        <v>78.600501150841509</v>
       </c>
       <c r="D104" s="0">
-        <v>26.891611855895231</v>
+        <v>6.8775438506986344</v>
       </c>
       <c r="E104" s="0">
-        <v>3.8416588365564608</v>
+        <v>6.8775438506986344</v>
       </c>
       <c r="F104" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G104" s="0">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H104" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>1001</v>
+        <v>905</v>
       </c>
       <c r="B105" s="0">
-        <v>919</v>
+        <v>693</v>
       </c>
       <c r="C105" s="0">
-        <v>79.921467809030489</v>
+        <v>76.518292897890902</v>
       </c>
       <c r="D105" s="0">
-        <v>13.813587028721322</v>
+        <v>24.868445191814509</v>
       </c>
       <c r="E105" s="0">
-        <v>6.9067935143606611</v>
+        <v>4.7823933061181814</v>
       </c>
       <c r="F105" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G105" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H105" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>822</v>
+        <v>925</v>
       </c>
       <c r="B106" s="0">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="C106" s="0">
-        <v>77.767400116720466</v>
+        <v>78.456366526912461</v>
       </c>
       <c r="D106" s="0">
-        <v>28.138984702270967</v>
+        <v>4.9035229079320288</v>
       </c>
       <c r="E106" s="0">
-        <v>4.9219873491595267</v>
+        <v>7.8456366526912484</v>
       </c>
       <c r="F106" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G106" s="0">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H106" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="B107" s="0">
-        <v>987</v>
+        <v>656</v>
       </c>
       <c r="C107" s="0">
-        <v>80.76871928725275</v>
+        <v>66.470901793438216</v>
       </c>
       <c r="D107" s="0">
-        <v>5.9099062893111798</v>
+        <v>9.0269125892323743</v>
       </c>
       <c r="E107" s="0">
-        <v>5.9099062893111798</v>
+        <v>9.8475410064352769</v>
       </c>
       <c r="F107" s="0">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G107" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H107" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>858</v>
+        <v>678</v>
       </c>
       <c r="B108" s="0">
-        <v>780</v>
+        <v>675</v>
       </c>
       <c r="C108" s="0">
-        <v>77.783427864393005</v>
+        <v>73.715248771871686</v>
       </c>
       <c r="D108" s="0">
-        <v>28.124174251890015</v>
+        <v>24.319011260878387</v>
       </c>
       <c r="E108" s="0">
-        <v>7.876802821710684</v>
+        <v>10.811569819874522</v>
       </c>
       <c r="F108" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G108" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H108" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1101</v>
+        <v>913</v>
       </c>
       <c r="B109" s="0">
-        <v>1011</v>
+        <v>831</v>
       </c>
       <c r="C109" s="0">
-        <v>80.894707389303633</v>
+        <v>78.638809210973335</v>
       </c>
       <c r="D109" s="0">
-        <v>10.851729040028539</v>
+        <v>24.574627878429155</v>
       </c>
       <c r="E109" s="0">
-        <v>7.8921665745662102</v>
+        <v>5.8979106908229983</v>
       </c>
       <c r="F109" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G109" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H109" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>806</v>
+        <v>937</v>
       </c>
       <c r="B110" s="0">
-        <v>730</v>
+        <v>863</v>
       </c>
       <c r="C110" s="0">
-        <v>77.797541552992058</v>
+        <v>78.552668161168924</v>
       </c>
       <c r="D110" s="0">
-        <v>19.248121426008311</v>
+        <v>17.674350336263</v>
       </c>
       <c r="E110" s="0">
-        <v>3.9391160279995958</v>
+        <v>8.8371751681315001</v>
       </c>
       <c r="F110" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G110" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H110" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1117</v>
+        <v>921</v>
       </c>
       <c r="B111" s="0">
-        <v>979</v>
+        <v>843</v>
       </c>
       <c r="C111" s="0">
-        <v>80.966301183455656</v>
+        <v>78.75675180070904</v>
       </c>
       <c r="D111" s="0">
-        <v>6.8284832323396421</v>
+        <v>24.611484937721581</v>
       </c>
       <c r="E111" s="0">
-        <v>4.8774880230997413</v>
+        <v>6.8912157825620408</v>
       </c>
       <c r="F111" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G111" s="0">
+        <v>25</v>
+      </c>
+      <c r="H111" s="0">
         <v>7</v>
-      </c>
-      <c r="H111" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>802</v>
+        <v>1016</v>
       </c>
       <c r="B112" s="0">
-        <v>726</v>
+        <v>1139</v>
       </c>
       <c r="C112" s="0">
-        <v>77.887098453282931</v>
+        <v>83.22371976313751</v>
       </c>
       <c r="D112" s="0">
-        <v>15.211513076173052</v>
+        <v>28.480068463901443</v>
       </c>
       <c r="E112" s="0">
-        <v>3.9436505545966036</v>
+        <v>7.0636969418368896</v>
       </c>
       <c r="F112" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G112" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H112" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1097</v>
+        <v>953</v>
       </c>
       <c r="B113" s="0">
-        <v>1007</v>
+        <v>877</v>
       </c>
       <c r="C113" s="0">
-        <v>80.93314724600846</v>
+        <v>79.615119753593831</v>
       </c>
       <c r="D113" s="0">
-        <v>27.635708815710196</v>
+        <v>10.811929843080641</v>
       </c>
       <c r="E113" s="0">
-        <v>6.9089272039275489</v>
+        <v>2.9487081390219947</v>
       </c>
       <c r="F113" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G113" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H113" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>1133</v>
+        <v>965</v>
       </c>
       <c r="B114" s="0">
-        <v>1085</v>
+        <v>889</v>
       </c>
       <c r="C114" s="0">
-        <v>81.621493709035505</v>
+        <v>79.516684898405956</v>
       </c>
       <c r="D114" s="0">
-        <v>6.8837404332921484</v>
+        <v>7.8534997430524305</v>
       </c>
       <c r="E114" s="0">
-        <v>6.8837404332921484</v>
+        <v>3.9267498715262152</v>
       </c>
       <c r="F114" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G114" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H114" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>882</v>
+        <v>961</v>
       </c>
       <c r="B115" s="0">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C115" s="0">
-        <v>77.784194647388588</v>
+        <v>77.64169781150818</v>
       </c>
       <c r="D115" s="0">
-        <v>25.132712651888486</v>
+        <v>26.839105416323839</v>
       </c>
       <c r="E115" s="0">
-        <v>2.916907299277073</v>
+        <v>2.8756184374632654</v>
       </c>
       <c r="F115" s="0">
         <v>78</v>
       </c>
       <c r="G115" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H115" s="0">
         <v>3</v>
@@ -10750,129 +10750,129 @@
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>894</v>
+        <v>989</v>
       </c>
       <c r="B116" s="0">
-        <v>732</v>
+        <v>907</v>
       </c>
       <c r="C116" s="0">
-        <v>77.762138488213793</v>
+        <v>79.595711704359303</v>
       </c>
       <c r="D116" s="0">
-        <v>25.153941705094233</v>
+        <v>7.8613048596898052</v>
       </c>
       <c r="E116" s="0">
-        <v>3.8881069244106881</v>
+        <v>5.8959786447673528</v>
       </c>
       <c r="F116" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G116" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H116" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="B117" s="0">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C117" s="0">
-        <v>77.696867527848838</v>
+        <v>77.604772043568687</v>
       </c>
       <c r="D117" s="0">
-        <v>28.130397536739842</v>
+        <v>26.826340953332377</v>
       </c>
       <c r="E117" s="0">
-        <v>5.8272650645886666</v>
+        <v>3.8323344219046245</v>
       </c>
       <c r="F117" s="0">
         <v>78</v>
       </c>
       <c r="G117" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H117" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>758</v>
+        <v>1001</v>
       </c>
       <c r="B118" s="0">
-        <v>833</v>
+        <v>919</v>
       </c>
       <c r="C118" s="0">
-        <v>78.9033223422758</v>
+        <v>79.725100566256458</v>
       </c>
       <c r="D118" s="0">
-        <v>27.093113184398241</v>
+        <v>13.779647011451736</v>
       </c>
       <c r="E118" s="0">
-        <v>5.9964355266740181</v>
+        <v>6.8898235057258681</v>
       </c>
       <c r="F118" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G118" s="0">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H118" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1137</v>
+        <v>810</v>
       </c>
       <c r="B119" s="0">
-        <v>1095</v>
+        <v>687</v>
       </c>
       <c r="C119" s="0">
-        <v>81.887635303196575</v>
+        <v>76.579381608550321</v>
       </c>
       <c r="D119" s="0">
-        <v>24.664950392529082</v>
+        <v>28.267414695788268</v>
       </c>
       <c r="E119" s="0">
-        <v>6.906186109908143</v>
+        <v>3.8774370434709002</v>
       </c>
       <c r="F119" s="0">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G119" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H119" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>798</v>
+        <v>687</v>
       </c>
       <c r="B120" s="0">
-        <v>722</v>
+        <v>977</v>
       </c>
       <c r="C120" s="0">
-        <v>77.936684238869276</v>
+        <v>77.60176506926814</v>
       </c>
       <c r="D120" s="0">
-        <v>7.2652111588138553</v>
+        <v>27.392823138095288</v>
       </c>
       <c r="E120" s="0">
-        <v>3.9461612272845188</v>
+        <v>3.9956705658907388</v>
       </c>
       <c r="F120" s="0">
         <v>78</v>
       </c>
       <c r="G120" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H120" s="0">
         <v>4</v>
@@ -10880,51 +10880,51 @@
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>878</v>
+        <v>822</v>
       </c>
       <c r="B121" s="0">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="C121" s="0">
-        <v>78.79092199164829</v>
+        <v>77.620669173104019</v>
       </c>
       <c r="D121" s="0">
-        <v>16.284645383873631</v>
+        <v>28.27457152358744</v>
       </c>
       <c r="E121" s="0">
-        <v>2.9546595746868101</v>
+        <v>4.9127005805762067</v>
       </c>
       <c r="F121" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G121" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H121" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>910</v>
+        <v>1073</v>
       </c>
       <c r="B122" s="0">
-        <v>830</v>
+        <v>987</v>
       </c>
       <c r="C122" s="0">
-        <v>78.733813007906107</v>
+        <v>80.569781555018139</v>
       </c>
       <c r="D122" s="0">
-        <v>20.282014329495048</v>
+        <v>5.8953498698793787</v>
       </c>
       <c r="E122" s="0">
-        <v>5.9050359755929591</v>
+        <v>5.8953498698793787</v>
       </c>
       <c r="F122" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G122" s="0">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H122" s="0">
         <v>6</v>
@@ -10932,25 +10932,25 @@
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B123" s="0">
-        <v>761</v>
+        <v>709</v>
       </c>
       <c r="C123" s="0">
-        <v>77.916425353322936</v>
+        <v>76.613277937510631</v>
       </c>
       <c r="D123" s="0">
-        <v>9.2618843986618895</v>
+        <v>25.32629871913521</v>
       </c>
       <c r="E123" s="0">
-        <v>6.9039870566235511</v>
+        <v>6.7885182982604411</v>
       </c>
       <c r="F123" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G123" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H123" s="0">
         <v>7</v>
@@ -10958,155 +10958,155 @@
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>958</v>
+        <v>858</v>
       </c>
       <c r="B124" s="0">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="C124" s="0">
-        <v>78.682329639632016</v>
+        <v>77.636943066154984</v>
       </c>
       <c r="D124" s="0">
-        <v>25.203217503065936</v>
+        <v>28.259533622413763</v>
       </c>
       <c r="E124" s="0">
-        <v>2.9141603570234103</v>
+        <v>7.8619689180916428</v>
       </c>
       <c r="F124" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G124" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H124" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>1006</v>
+        <v>1101</v>
       </c>
       <c r="B125" s="0">
-        <v>924</v>
+        <v>1011</v>
       </c>
       <c r="C125" s="0">
-        <v>79.765173487027468</v>
+        <v>80.697403224939478</v>
       </c>
       <c r="D125" s="0">
-        <v>28.112868338851815</v>
+        <v>10.825261408223591</v>
       </c>
       <c r="E125" s="0">
-        <v>6.8932865976443471</v>
+        <v>7.8729173877989753</v>
       </c>
       <c r="F125" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G125" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H125" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>942</v>
+        <v>806</v>
       </c>
       <c r="B126" s="0">
-        <v>866</v>
+        <v>730</v>
       </c>
       <c r="C126" s="0">
-        <v>78.802431702698854</v>
+        <v>77.658865008334331</v>
       </c>
       <c r="D126" s="0">
-        <v>16.272416315882417</v>
+        <v>19.392064168564449</v>
       </c>
       <c r="E126" s="0">
-        <v>9.8503039628373568</v>
+        <v>3.9320944308017354</v>
       </c>
       <c r="F126" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G126" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H126" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>946</v>
+        <v>1109</v>
       </c>
       <c r="B127" s="0">
-        <v>871</v>
+        <v>1047</v>
       </c>
       <c r="C127" s="0">
-        <v>78.95614180164894</v>
+        <v>81.557664123003761</v>
       </c>
       <c r="D127" s="0">
-        <v>17.0960511082687</v>
+        <v>4.9131122965664868</v>
       </c>
       <c r="E127" s="0">
-        <v>10.856469497726726</v>
+        <v>3.9304898372531931</v>
       </c>
       <c r="F127" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G127" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H127" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>954</v>
+        <v>1117</v>
       </c>
       <c r="B128" s="0">
-        <v>791</v>
+        <v>979</v>
       </c>
       <c r="C128" s="0">
-        <v>79.033057604229398</v>
+        <v>80.568432381571355</v>
       </c>
       <c r="D128" s="0">
-        <v>17.0640753535865</v>
+        <v>6.7949280321807262</v>
       </c>
       <c r="E128" s="0">
-        <v>2.9271502816381219</v>
+        <v>4.8535200229862303</v>
       </c>
       <c r="F128" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G128" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H128" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>970</v>
+        <v>802</v>
       </c>
       <c r="B129" s="0">
-        <v>807</v>
+        <v>726</v>
       </c>
       <c r="C129" s="0">
-        <v>78.87586904723419</v>
+        <v>77.751877796245992</v>
       </c>
       <c r="D129" s="0">
-        <v>19.176578630611871</v>
+        <v>15.358715310415809</v>
       </c>
       <c r="E129" s="0">
-        <v>3.8951046443078634</v>
+        <v>3.9368039390504288</v>
       </c>
       <c r="F129" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G129" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H129" s="0">
         <v>4</v>
@@ -11114,305 +11114,305 @@
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>1026</v>
+        <v>1097</v>
       </c>
       <c r="B130" s="0">
-        <v>941</v>
+        <v>1007</v>
       </c>
       <c r="C130" s="0">
-        <v>79.80655504646937</v>
+        <v>80.744491891122664</v>
       </c>
       <c r="D130" s="0">
-        <v>28.075573847009125</v>
+        <v>27.571289914041873</v>
       </c>
       <c r="E130" s="0">
-        <v>8.8673950051632584</v>
+        <v>6.8928224785104684</v>
       </c>
       <c r="F130" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G130" s="0">
         <v>28</v>
       </c>
       <c r="H130" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>791</v>
+        <v>1133</v>
       </c>
       <c r="B131" s="0">
-        <v>788</v>
+        <v>1085</v>
       </c>
       <c r="C131" s="0">
-        <v>79.844503882584434</v>
+        <v>81.422901266921059</v>
       </c>
       <c r="D131" s="0">
-        <v>16.172389545811992</v>
+        <v>6.8669916731138212</v>
       </c>
       <c r="E131" s="0">
-        <v>2.987329928702672</v>
+        <v>6.8669916731138212</v>
       </c>
       <c r="F131" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G131" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H131" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B132" s="0">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C132" s="0">
-        <v>78.930116839789861</v>
+        <v>77.640149842486025</v>
       </c>
       <c r="D132" s="0">
-        <v>6.2704862527495351</v>
+        <v>25.271355776607212</v>
       </c>
       <c r="E132" s="0">
-        <v>3.9465058419894929</v>
+        <v>2.9115056190932265</v>
       </c>
       <c r="F132" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G132" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H132" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="B133" s="0">
-        <v>827</v>
+        <v>732</v>
       </c>
       <c r="C133" s="0">
-        <v>78.944149375259443</v>
+        <v>77.618134528050433</v>
       </c>
       <c r="D133" s="0">
-        <v>8.2274263512609238</v>
+        <v>25.292545516751463</v>
       </c>
       <c r="E133" s="0">
-        <v>5.9208112031444582</v>
+        <v>3.8809067264025203</v>
       </c>
       <c r="F133" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G133" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H133" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>1177</v>
+        <v>914</v>
       </c>
       <c r="B134" s="0">
-        <v>1173</v>
+        <v>758</v>
       </c>
       <c r="C134" s="0">
-        <v>92.738617634214236</v>
+        <v>77.55026966458874</v>
       </c>
       <c r="D134" s="0">
-        <v>10.852391425280389</v>
+        <v>28.266000560255428</v>
       </c>
       <c r="E134" s="0">
-        <v>10.852391425280389</v>
+        <v>5.8162702248441605</v>
       </c>
       <c r="F134" s="0">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G134" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H134" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>962</v>
+        <v>758</v>
       </c>
       <c r="B135" s="0">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="C135" s="0">
-        <v>79.114249531377027</v>
+        <v>78.620020353210236</v>
       </c>
       <c r="D135" s="0">
-        <v>7.2116826483849747</v>
+        <v>27.375494372008504</v>
       </c>
       <c r="E135" s="0">
-        <v>3.9068765200680038</v>
+        <v>5.9955147252187233</v>
       </c>
       <c r="F135" s="0">
         <v>79</v>
       </c>
       <c r="G135" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H135" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>1034</v>
+        <v>922</v>
       </c>
       <c r="B136" s="0">
-        <v>948</v>
+        <v>845</v>
       </c>
       <c r="C136" s="0">
-        <v>79.821701612645498</v>
+        <v>78.533613094930828</v>
       </c>
       <c r="D136" s="0">
-        <v>18.207392174696501</v>
+        <v>27.356407887188972</v>
       </c>
       <c r="E136" s="0">
-        <v>10.839984169618532</v>
+        <v>6.8716911458064498</v>
       </c>
       <c r="F136" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G136" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H136" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>978</v>
+        <v>1137</v>
       </c>
       <c r="B137" s="0">
-        <v>816</v>
+        <v>1095</v>
       </c>
       <c r="C137" s="0">
-        <v>79.05280588652154</v>
+        <v>81.696755034424555</v>
       </c>
       <c r="D137" s="0">
-        <v>8.2597067489749278</v>
+        <v>24.60745633567004</v>
       </c>
       <c r="E137" s="0">
-        <v>4.879802832501329</v>
+        <v>6.8900877739876103</v>
       </c>
       <c r="F137" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G137" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H137" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>1066</v>
+        <v>798</v>
       </c>
       <c r="B138" s="0">
-        <v>819</v>
+        <v>722</v>
       </c>
       <c r="C138" s="0">
-        <v>78.923224502609315</v>
+        <v>77.808075849036157</v>
       </c>
       <c r="D138" s="0">
-        <v>20.11429714979775</v>
+        <v>7.4182388631722507</v>
       </c>
       <c r="E138" s="0">
-        <v>4.8123917379639964</v>
+        <v>3.939649410077779</v>
       </c>
       <c r="F138" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G138" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H138" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>1094</v>
+        <v>902</v>
       </c>
       <c r="B139" s="0">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="C139" s="0">
-        <v>79.742225546029076</v>
+        <v>78.626747413980183</v>
       </c>
       <c r="D139" s="0">
-        <v>25.120105279948223</v>
+        <v>20.390418243344946</v>
       </c>
       <c r="E139" s="0">
-        <v>6.8072631563683421</v>
+        <v>4.9141717133737615</v>
       </c>
       <c r="F139" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G139" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H139" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>799</v>
+        <v>878</v>
       </c>
       <c r="B140" s="0">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="C140" s="0">
-        <v>79.923739451348283</v>
+        <v>78.653894301228021</v>
       </c>
       <c r="D140" s="0">
-        <v>6.1093503396708266</v>
+        <v>16.430237304945152</v>
       </c>
       <c r="E140" s="0">
-        <v>3.9905457739945454</v>
+        <v>2.9495210362960504</v>
       </c>
       <c r="F140" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G140" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H140" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>1078</v>
+        <v>910</v>
       </c>
       <c r="B141" s="0">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="C141" s="0">
-        <v>78.751039012226116</v>
+        <v>78.593467530173655</v>
       </c>
       <c r="D141" s="0">
-        <v>20.288582463234835</v>
+        <v>20.424114125699155</v>
       </c>
       <c r="E141" s="0">
-        <v>5.7622711472360484</v>
+        <v>5.8945100647630255</v>
       </c>
       <c r="F141" s="0">
         <v>79</v>
@@ -11426,103 +11426,103 @@
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="B142" s="0">
-        <v>899</v>
+        <v>761</v>
       </c>
       <c r="C142" s="0">
-        <v>79.906668305986258</v>
+        <v>77.786347848559458</v>
       </c>
       <c r="D142" s="0">
-        <v>7.0615626945642624</v>
+        <v>9.4133670624370787</v>
       </c>
       <c r="E142" s="0">
-        <v>4.9971141667276049</v>
+        <v>6.8924612017710913</v>
       </c>
       <c r="F142" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G142" s="0">
+        <v>9</v>
+      </c>
+      <c r="H142" s="0">
         <v>7</v>
-      </c>
-      <c r="H142" s="0">
-        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>910</v>
+        <v>958</v>
       </c>
       <c r="B143" s="0">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="C143" s="0">
-        <v>79.855800215340324</v>
+        <v>78.53742663845405</v>
       </c>
       <c r="D143" s="0">
-        <v>19.149606015998874</v>
+        <v>25.340964800482023</v>
       </c>
       <c r="E143" s="0">
-        <v>5.967562611964973</v>
+        <v>2.9087935792020048</v>
       </c>
       <c r="F143" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G143" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H143" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="B144" s="0">
-        <v>918</v>
+        <v>811</v>
       </c>
       <c r="C144" s="0">
-        <v>79.86734924439493</v>
+        <v>78.607556025388959</v>
       </c>
       <c r="D144" s="0">
-        <v>8.3004508675466191</v>
+        <v>27.215225902417565</v>
       </c>
       <c r="E144" s="0">
-        <v>6.9021166013674611</v>
+        <v>3.8818546185377234</v>
       </c>
       <c r="F144" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G144" s="0">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H144" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>1050</v>
+        <v>811</v>
       </c>
       <c r="B145" s="0">
-        <v>968</v>
+        <v>896</v>
       </c>
       <c r="C145" s="0">
-        <v>80.831045434631008</v>
+        <v>79.590027316865871</v>
       </c>
       <c r="D145" s="0">
-        <v>15.225976739289464</v>
+        <v>26.405206495424853</v>
       </c>
       <c r="E145" s="0">
-        <v>3.9429778260795598</v>
+        <v>3.9968225415271408</v>
       </c>
       <c r="F145" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G145" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H145" s="0">
         <v>4</v>
@@ -11530,22 +11530,22 @@
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>1138</v>
+        <v>1006</v>
       </c>
       <c r="B146" s="0">
-        <v>1007</v>
+        <v>924</v>
       </c>
       <c r="C146" s="0">
-        <v>81.683701139666198</v>
+        <v>79.616911082776483</v>
       </c>
       <c r="D146" s="0">
-        <v>28.157708636197267</v>
+        <v>28.246487542682946</v>
       </c>
       <c r="E146" s="0">
-        <v>6.8889868431043721</v>
+        <v>6.8804737972769781</v>
       </c>
       <c r="F146" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G146" s="0">
         <v>28</v>
@@ -11556,805 +11556,805 @@
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>1150</v>
+        <v>942</v>
       </c>
       <c r="B147" s="0">
-        <v>1146</v>
+        <v>866</v>
       </c>
       <c r="C147" s="0">
-        <v>84.735477327277223</v>
+        <v>78.665859030770434</v>
       </c>
       <c r="D147" s="0">
-        <v>25.117485152638686</v>
+        <v>16.417524779806364</v>
       </c>
       <c r="E147" s="0">
-        <v>10.838258727907549</v>
+        <v>9.8332323788463043</v>
       </c>
       <c r="F147" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G147" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H147" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="B148" s="0">
-        <v>1002</v>
+        <v>871</v>
       </c>
       <c r="C148" s="0">
-        <v>80.994744302078942</v>
+        <v>78.818826772428679</v>
       </c>
       <c r="D148" s="0">
-        <v>19.080850291569138</v>
+        <v>17.240231888949978</v>
       </c>
       <c r="E148" s="0">
-        <v>6.7466643077966584</v>
+        <v>10.83758868120894</v>
       </c>
       <c r="F148" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G148" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H148" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>994</v>
+        <v>954</v>
       </c>
       <c r="B149" s="0">
-        <v>1005</v>
+        <v>791</v>
       </c>
       <c r="C149" s="0">
-        <v>80.858448363724023</v>
+        <v>78.89512905692709</v>
       </c>
       <c r="D149" s="0">
-        <v>26.007949635681847</v>
+        <v>17.208815187175354</v>
       </c>
       <c r="E149" s="0">
-        <v>6.7900740416888867</v>
+        <v>2.9220418169232207</v>
       </c>
       <c r="F149" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G149" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H149" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>407</v>
+        <v>970</v>
       </c>
       <c r="B150" s="0">
-        <v>260</v>
+        <v>807</v>
       </c>
       <c r="C150" s="0">
-        <v>36.89941869740467</v>
+        <v>78.736265739185981</v>
       </c>
       <c r="D150" s="0">
-        <v>24.814621816456672</v>
+        <v>19.319628933920519</v>
       </c>
       <c r="E150" s="0">
-        <v>20.047682503363301</v>
+        <v>3.888210653786965</v>
       </c>
       <c r="F150" s="0">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G150" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H150" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>851</v>
+        <v>1026</v>
       </c>
       <c r="B151" s="0">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C151" s="0">
-        <v>62.109879760131236</v>
+        <v>79.658490936921183</v>
       </c>
       <c r="D151" s="0">
-        <v>41.903809850973673</v>
+        <v>28.209014340799463</v>
       </c>
       <c r="E151" s="0">
-        <v>29.899529215339641</v>
+        <v>8.8509434374356832</v>
       </c>
       <c r="F151" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G151" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H151" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48</v>
+        <v>791</v>
       </c>
       <c r="B152" s="0">
-        <v>47</v>
+        <v>788</v>
       </c>
       <c r="C152" s="0">
-        <v>17.033771487522291</v>
+        <v>79.704116674017996</v>
       </c>
       <c r="D152" s="0">
-        <v>53.593605604616563</v>
+        <v>16.314829224499231</v>
       </c>
       <c r="E152" s="0">
-        <v>6.1738325214044441</v>
+        <v>2.9857905761120738</v>
       </c>
       <c r="F152" s="0">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G152" s="0">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H152" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>828</v>
+        <v>886</v>
       </c>
       <c r="B153" s="0">
-        <v>910</v>
+        <v>722</v>
       </c>
       <c r="C153" s="0">
-        <v>58.159043153010231</v>
+        <v>78.801356453428056</v>
       </c>
       <c r="D153" s="0">
-        <v>40.790847528576307</v>
+        <v>6.4233892115541869</v>
       </c>
       <c r="E153" s="0">
-        <v>26.827969137603407</v>
+        <v>3.9400678226714021</v>
       </c>
       <c r="F153" s="0">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G153" s="0">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H153" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>557</v>
+        <v>982</v>
       </c>
       <c r="B154" s="0">
-        <v>498</v>
+        <v>903</v>
       </c>
       <c r="C154" s="0">
-        <v>42.860997738178156</v>
+        <v>79.685772476230341</v>
       </c>
       <c r="D154" s="0">
-        <v>34.86790571816546</v>
+        <v>20.314227523769638</v>
       </c>
       <c r="E154" s="0">
-        <v>46.613861360574745</v>
+        <v>4.91887484421175</v>
       </c>
       <c r="F154" s="0">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G154" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H154" s="0">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>965</v>
+        <v>906</v>
       </c>
       <c r="B155" s="0">
-        <v>968</v>
+        <v>827</v>
       </c>
       <c r="C155" s="0">
-        <v>67.015608838975055</v>
+        <v>78.813878501702902</v>
       </c>
       <c r="D155" s="0">
-        <v>46.926592486958278</v>
+        <v>8.3788662417703961</v>
       </c>
       <c r="E155" s="0">
-        <v>46.635934346860438</v>
+        <v>5.9110408876277187</v>
       </c>
       <c r="F155" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G155" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H155" s="0">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>252</v>
+        <v>1177</v>
       </c>
       <c r="B156" s="0">
-        <v>235</v>
+        <v>1173</v>
       </c>
       <c r="C156" s="0">
-        <v>34.961443996444913</v>
+        <v>92.541301426481866</v>
       </c>
       <c r="D156" s="0">
-        <v>64.704669945038177</v>
+        <v>10.829301230758517</v>
       </c>
       <c r="E156" s="0">
-        <v>74.890715434955524</v>
+        <v>10.829301230758517</v>
       </c>
       <c r="F156" s="0">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="G156" s="0">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H156" s="0">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>532</v>
+        <v>966</v>
       </c>
       <c r="B157" s="0">
-        <v>324</v>
+        <v>684</v>
       </c>
       <c r="C157" s="0">
-        <v>39.840994002468406</v>
+        <v>77.76582886140838</v>
       </c>
       <c r="D157" s="0">
-        <v>66.769993733592727</v>
+        <v>14.553595448576171</v>
       </c>
       <c r="E157" s="0">
-        <v>74.813659674054946</v>
+        <v>3.8402878450078206</v>
       </c>
       <c r="F157" s="0">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G157" s="0">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="H157" s="0">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>695</v>
+        <v>1058</v>
       </c>
       <c r="B158" s="0">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="C158" s="0">
-        <v>48.947051922500862</v>
+        <v>80.463138718000906</v>
       </c>
       <c r="D158" s="0">
-        <v>73.82283686310187</v>
+        <v>28.368181385194369</v>
       </c>
       <c r="E158" s="0">
-        <v>80.760995072168981</v>
+        <v>3.9250311569756531</v>
       </c>
       <c r="F158" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G158" s="0">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H158" s="0">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>696</v>
+        <v>1014</v>
       </c>
       <c r="B159" s="0">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="C159" s="0">
-        <v>51.169842722542214</v>
+        <v>78.735665940008502</v>
       </c>
       <c r="D159" s="0">
-        <v>67.919335416900878</v>
+        <v>19.320243542954323</v>
       </c>
       <c r="E159" s="0">
-        <v>74.890504863522537</v>
+        <v>7.776362068148984</v>
       </c>
       <c r="F159" s="0">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G159" s="0">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H159" s="0">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>341</v>
+        <v>855</v>
       </c>
       <c r="B160" s="0">
-        <v>310</v>
+        <v>928</v>
       </c>
       <c r="C160" s="0">
-        <v>38.897461648441734</v>
+        <v>79.585306732986567</v>
       </c>
       <c r="D160" s="0">
-        <v>72.799538910352425</v>
+        <v>18.416046914405374</v>
       </c>
       <c r="E160" s="0">
-        <v>84.80324497220785</v>
+        <v>7.9945854104321823</v>
       </c>
       <c r="F160" s="0">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G160" s="0">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H160" s="0">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>492</v>
+        <v>962</v>
       </c>
       <c r="B161" s="0">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C161" s="0">
-        <v>49.893492563801729</v>
+        <v>78.85485854930694</v>
       </c>
       <c r="D161" s="0">
-        <v>52.792562401696941</v>
+        <v>7.5159066397017451</v>
       </c>
       <c r="E161" s="0">
-        <v>42.891049142104109</v>
+        <v>3.8940670888546665</v>
       </c>
       <c r="F161" s="0">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G161" s="0">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="H161" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>43</v>
+        <v>1034</v>
       </c>
       <c r="B162" s="0">
-        <v>40</v>
+        <v>948</v>
       </c>
       <c r="C162" s="0">
-        <v>32.755115439703701</v>
+        <v>79.68263941471406</v>
       </c>
       <c r="D162" s="0">
-        <v>41.94396179279515</v>
+        <v>18.349888007144763</v>
       </c>
       <c r="E162" s="0">
-        <v>39.18014130392757</v>
+        <v>10.82109917977599</v>
       </c>
       <c r="F162" s="0">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G162" s="0">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H162" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>423</v>
+        <v>799</v>
       </c>
       <c r="B163" s="0">
-        <v>240</v>
+        <v>887</v>
       </c>
       <c r="C163" s="0">
-        <v>48.850609007301571</v>
+        <v>79.645216061140445</v>
       </c>
       <c r="D163" s="0">
-        <v>32.903711237135106</v>
+        <v>6.3964369730333583</v>
       </c>
       <c r="E163" s="0">
-        <v>25.144988898663954</v>
+        <v>3.988099133093205</v>
       </c>
       <c r="F163" s="0">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G163" s="0">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H163" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>169</v>
+        <v>978</v>
       </c>
       <c r="B164" s="0">
-        <v>139</v>
+        <v>816</v>
       </c>
       <c r="C164" s="0">
-        <v>46.897030748397157</v>
+        <v>78.791905537061069</v>
       </c>
       <c r="D164" s="0">
-        <v>45.897818053427564</v>
+        <v>8.5624799940278091</v>
       </c>
       <c r="E164" s="0">
-        <v>29.83565418832865</v>
+        <v>4.8636978726580899</v>
       </c>
       <c r="F164" s="0">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G164" s="0">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H164" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>478</v>
+        <v>1066</v>
       </c>
       <c r="B165" s="0">
-        <v>356</v>
+        <v>902</v>
       </c>
       <c r="C165" s="0">
-        <v>49.852919160513373</v>
+        <v>78.642358934984372</v>
       </c>
       <c r="D165" s="0">
-        <v>51.636768269590085</v>
+        <v>20.398587907271775</v>
       </c>
       <c r="E165" s="0">
-        <v>38.033944810942927</v>
+        <v>4.7952657887185746</v>
       </c>
       <c r="F165" s="0">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G165" s="0">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H165" s="0">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>657</v>
+        <v>1094</v>
       </c>
       <c r="B166" s="0">
-        <v>493</v>
+        <v>843</v>
       </c>
       <c r="C166" s="0">
-        <v>51.040643115969594</v>
+        <v>79.596710535908585</v>
       </c>
       <c r="D166" s="0">
-        <v>55.823489592686101</v>
+        <v>25.25674742359795</v>
       </c>
       <c r="E166" s="0">
-        <v>44.160739620099662</v>
+        <v>6.7948411433092764</v>
       </c>
       <c r="F166" s="0">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G166" s="0">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H166" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>449</v>
+        <v>902</v>
       </c>
       <c r="B167" s="0">
-        <v>364</v>
+        <v>819</v>
       </c>
       <c r="C167" s="0">
-        <v>49.852004157510578</v>
+        <v>79.464994727091664</v>
       </c>
       <c r="D167" s="0">
-        <v>53.126273084367412</v>
+        <v>19.538775574070108</v>
       </c>
       <c r="E167" s="0">
-        <v>40.114841690131925</v>
+        <v>4.9811484941909878</v>
       </c>
       <c r="F167" s="0">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G167" s="0">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H167" s="0">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>362</v>
+        <v>1054</v>
       </c>
       <c r="B168" s="0">
-        <v>273</v>
+        <v>972</v>
       </c>
       <c r="C168" s="0">
-        <v>48.919637686163185</v>
+        <v>80.562262101223112</v>
       </c>
       <c r="D168" s="0">
-        <v>55.185011747474114</v>
+        <v>19.437737898776827</v>
       </c>
       <c r="E168" s="0">
-        <v>44.065115617495863</v>
+        <v>3.9298664439621067</v>
       </c>
       <c r="F168" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G168" s="0">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H168" s="0">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>638</v>
+        <v>816</v>
       </c>
       <c r="B169" s="0">
-        <v>798</v>
+        <v>899</v>
       </c>
       <c r="C169" s="0">
-        <v>49.854409748848596</v>
+        <v>79.845534642821804</v>
       </c>
       <c r="D169" s="0">
-        <v>51.957472991099102</v>
+        <v>7.2233319573203465</v>
       </c>
       <c r="E169" s="0">
-        <v>48.113060103959498</v>
+        <v>4.9969528053034455</v>
       </c>
       <c r="F169" s="0">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G169" s="0">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H169" s="0">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>635</v>
+        <v>1078</v>
       </c>
       <c r="B170" s="0">
-        <v>638</v>
+        <v>910</v>
       </c>
       <c r="C170" s="0">
-        <v>49.795587256494251</v>
+        <v>78.610662828603623</v>
       </c>
       <c r="D170" s="0">
-        <v>51.8964725046919</v>
+        <v>20.43067055153567</v>
       </c>
       <c r="E170" s="0">
-        <v>48.116205290856882</v>
+        <v>5.7519997191661094</v>
       </c>
       <c r="F170" s="0">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G170" s="0">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H170" s="0">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>660</v>
+        <v>1114</v>
       </c>
       <c r="B171" s="0">
-        <v>567</v>
+        <v>1059</v>
       </c>
       <c r="C171" s="0">
-        <v>51.799627190276794</v>
+        <v>81.643713428869759</v>
       </c>
       <c r="D171" s="0">
-        <v>57.125199255709035</v>
+        <v>28.19287855051218</v>
       </c>
       <c r="E171" s="0">
-        <v>42.22885754975988</v>
+        <v>3.9346367917527569</v>
       </c>
       <c r="F171" s="0">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G171" s="0">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H171" s="0">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>493</v>
+        <v>910</v>
       </c>
       <c r="B172" s="0">
-        <v>548</v>
+        <v>830</v>
       </c>
       <c r="C172" s="0">
-        <v>51.931771033130808</v>
+        <v>79.713621756500672</v>
       </c>
       <c r="D172" s="0">
-        <v>51.044645162353049</v>
+        <v>19.290608969825467</v>
       </c>
       <c r="E172" s="0">
-        <v>38.155668402281051</v>
+        <v>5.974615642043104</v>
       </c>
       <c r="F172" s="0">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G172" s="0">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H172" s="0">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>662</v>
+        <v>1122</v>
       </c>
       <c r="B173" s="0">
-        <v>572</v>
+        <v>1071</v>
       </c>
       <c r="C173" s="0">
-        <v>51.860589743075593</v>
+        <v>81.613699195848909</v>
       </c>
       <c r="D173" s="0">
-        <v>57.235851753494053</v>
+        <v>28.219276610879916</v>
       </c>
       <c r="E173" s="0">
-        <v>43.110303653772391</v>
+        <v>4.916487903364394</v>
       </c>
       <c r="F173" s="0">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G173" s="0">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H173" s="0">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>452</v>
+        <v>998</v>
       </c>
       <c r="B174" s="0">
-        <v>276</v>
+        <v>918</v>
       </c>
       <c r="C174" s="0">
-        <v>49.136101065823162</v>
+        <v>79.736204171744035</v>
       </c>
       <c r="D174" s="0">
-        <v>54.026987257416906</v>
+        <v>8.4510248398494987</v>
       </c>
       <c r="E174" s="0">
-        <v>46.129789049888544</v>
+        <v>6.8907830765704698</v>
       </c>
       <c r="F174" s="0">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G174" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="H174" s="0">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>548</v>
+        <v>1050</v>
       </c>
       <c r="B175" s="0">
-        <v>545</v>
+        <v>968</v>
       </c>
       <c r="C175" s="0">
-        <v>52.104073992194898</v>
+        <v>80.555171559427492</v>
       </c>
       <c r="D175" s="0">
-        <v>50.134978188738273</v>
+        <v>15.515307876698039</v>
       </c>
       <c r="E175" s="0">
-        <v>37.036842311190959</v>
+        <v>3.9295205638745099</v>
       </c>
       <c r="F175" s="0">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G175" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H175" s="0">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>567</v>
+        <v>1130</v>
       </c>
       <c r="B176" s="0">
-        <v>560</v>
+        <v>1083</v>
       </c>
       <c r="C176" s="0">
-        <v>52.12295288587098</v>
+        <v>81.577060047338264</v>
       </c>
       <c r="D176" s="0">
-        <v>56.092075382893384</v>
+        <v>28.251501404148168</v>
       </c>
       <c r="E176" s="0">
-        <v>41.113472229582975</v>
+        <v>5.8971368708919272</v>
       </c>
       <c r="F176" s="0">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G176" s="0">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H176" s="0">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>277</v>
+        <v>1138</v>
       </c>
       <c r="B177" s="0">
-        <v>184</v>
+        <v>1007</v>
       </c>
       <c r="C177" s="0">
-        <v>48.992722370949529</v>
+        <v>81.533822788951213</v>
       </c>
       <c r="D177" s="0">
-        <v>9.0872034905541526</v>
+        <v>28.28952935429599</v>
       </c>
       <c r="E177" s="0">
-        <v>7.2515981850264826</v>
+        <v>6.8763465002729873</v>
       </c>
       <c r="F177" s="0">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G177" s="0">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H177" s="0">
         <v>7</v>
@@ -12362,389 +12362,389 @@
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>443</v>
+        <v>1150</v>
       </c>
       <c r="B178" s="0">
-        <v>794</v>
+        <v>1146</v>
       </c>
       <c r="C178" s="0">
-        <v>50.062014766654514</v>
+        <v>84.586295148884119</v>
       </c>
       <c r="D178" s="0">
-        <v>54.150273995804788</v>
+        <v>25.249320566102348</v>
       </c>
       <c r="E178" s="0">
-        <v>35.877254291137291</v>
+        <v>10.819177286485175</v>
       </c>
       <c r="F178" s="0">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G178" s="0">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H178" s="0">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>545</v>
+        <v>1134</v>
       </c>
       <c r="B179" s="0">
-        <v>604</v>
+        <v>1000</v>
       </c>
       <c r="C179" s="0">
-        <v>53.049701103756512</v>
+        <v>80.73582359224315</v>
       </c>
       <c r="D179" s="0">
-        <v>45.192164854337193</v>
+        <v>11.482410278384181</v>
       </c>
       <c r="E179" s="0">
-        <v>31.14392458287309</v>
+        <v>6.8090453632012142</v>
       </c>
       <c r="F179" s="0">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G179" s="0">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H179" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>670</v>
+        <v>1194</v>
       </c>
       <c r="B180" s="0">
-        <v>548</v>
+        <v>1165</v>
       </c>
       <c r="C180" s="0">
-        <v>51.942131970763256</v>
+        <v>89.566605415977193</v>
       </c>
       <c r="D180" s="0">
-        <v>49.940163478225656</v>
+        <v>23.360533510039804</v>
       </c>
       <c r="E180" s="0">
-        <v>37.230377384002004</v>
+        <v>11.080404793729134</v>
       </c>
       <c r="F180" s="0">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G180" s="0">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H180" s="0">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>674</v>
+        <v>1182</v>
       </c>
       <c r="B181" s="0">
-        <v>493</v>
+        <v>1179</v>
       </c>
       <c r="C181" s="0">
-        <v>51.955289605669641</v>
+        <v>93.564831628882629</v>
       </c>
       <c r="D181" s="0">
-        <v>51.219594897982866</v>
+        <v>21.208562838835743</v>
       </c>
       <c r="E181" s="0">
-        <v>38.126057091647894</v>
+        <v>10.833822609660093</v>
       </c>
       <c r="F181" s="0">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="G181" s="0">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H181" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>672</v>
+        <v>1186</v>
       </c>
       <c r="B182" s="0">
-        <v>670</v>
+        <v>1179</v>
       </c>
       <c r="C182" s="0">
-        <v>52.00011895987258</v>
+        <v>94.410798736707406</v>
       </c>
       <c r="D182" s="0">
-        <v>49.999450121502065</v>
+        <v>20.340888565903185</v>
       </c>
       <c r="E182" s="0">
-        <v>37.332343720018159</v>
+        <v>10.817904021914385</v>
       </c>
       <c r="F182" s="0">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G182" s="0">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H182" s="0">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>669</v>
+        <v>991</v>
       </c>
       <c r="B183" s="0">
-        <v>543</v>
+        <v>1002</v>
       </c>
       <c r="C183" s="0">
-        <v>52.03175633657689</v>
+        <v>81.018797351318</v>
       </c>
       <c r="D183" s="0">
-        <v>50.217492910295235</v>
+        <v>19.037898593918058</v>
       </c>
       <c r="E183" s="0">
-        <v>36.139672839724348</v>
+        <v>6.5528174546078741</v>
       </c>
       <c r="F183" s="0">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G183" s="0">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H183" s="0">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>339</v>
+        <v>994</v>
       </c>
       <c r="B184" s="0">
-        <v>258</v>
+        <v>1005</v>
       </c>
       <c r="C184" s="0">
-        <v>48.944932635773448</v>
+        <v>80.879607800174398</v>
       </c>
       <c r="D184" s="0">
-        <v>51.044262044436373</v>
+        <v>26.018961078289507</v>
       </c>
       <c r="E184" s="0">
-        <v>35.200636268741832</v>
+        <v>6.5915015703319524</v>
       </c>
       <c r="F184" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G184" s="0">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H184" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>239</v>
+        <v>963</v>
       </c>
       <c r="B185" s="0">
-        <v>165</v>
+        <v>1117</v>
       </c>
       <c r="C185" s="0">
-        <v>47.857891662552923</v>
+        <v>80.876012362061701</v>
       </c>
       <c r="D185" s="0">
-        <v>42.117101446571887</v>
+        <v>6.6427402047711865</v>
       </c>
       <c r="E185" s="0">
-        <v>28.969773648455504</v>
+        <v>4.6703707513234081</v>
       </c>
       <c r="F185" s="0">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G185" s="0">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H185" s="0">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>572</v>
+        <v>902</v>
       </c>
       <c r="B186" s="0">
-        <v>664</v>
+        <v>1078</v>
       </c>
       <c r="C186" s="0">
-        <v>53.817319471312132</v>
+        <v>79.302248478524973</v>
       </c>
       <c r="D186" s="0">
-        <v>47.003149931619276</v>
+        <v>19.877559276983149</v>
       </c>
       <c r="E186" s="0">
-        <v>31.186595737685863</v>
+        <v>5.7122866270837536</v>
       </c>
       <c r="F186" s="0">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G186" s="0">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H186" s="0">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>643</v>
+        <v>97</v>
       </c>
       <c r="B187" s="0">
-        <v>535</v>
+        <v>96</v>
       </c>
       <c r="C187" s="0">
-        <v>51.878211316682425</v>
+        <v>22.72147286795968</v>
       </c>
       <c r="D187" s="0">
-        <v>46.195010336905021</v>
+        <v>25.516737352422496</v>
       </c>
       <c r="E187" s="0">
-        <v>33.213535150615556</v>
+        <v>6.997424778402765</v>
       </c>
       <c r="F187" s="0">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G187" s="0">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H187" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>633</v>
+        <v>407</v>
       </c>
       <c r="B188" s="0">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="C188" s="0">
-        <v>51.922214424866674</v>
+        <v>36.634149321046465</v>
       </c>
       <c r="D188" s="0">
-        <v>45.231554022945183</v>
+        <v>24.596950026771282</v>
       </c>
       <c r="E188" s="0">
-        <v>30.087268829631039</v>
+        <v>19.842131658213759</v>
       </c>
       <c r="F188" s="0">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G188" s="0">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H188" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>548</v>
+        <v>262</v>
       </c>
       <c r="B189" s="0">
-        <v>601</v>
+        <v>195</v>
       </c>
       <c r="C189" s="0">
-        <v>52.872432661091658</v>
+        <v>32.77763792400426</v>
       </c>
       <c r="D189" s="0">
-        <v>46.158709691742189</v>
+        <v>41.488813101692045</v>
       </c>
       <c r="E189" s="0">
-        <v>29.341587008847451</v>
+        <v>20.668539764220167</v>
       </c>
       <c r="F189" s="0">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G189" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H189" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>493</v>
+        <v>48</v>
       </c>
       <c r="B190" s="0">
-        <v>603</v>
+        <v>47</v>
       </c>
       <c r="C190" s="0">
-        <v>52.8814660805645</v>
+        <v>17.088127005985712</v>
       </c>
       <c r="D190" s="0">
-        <v>47.056791960121956</v>
+        <v>53.314721360383452</v>
       </c>
       <c r="E190" s="0">
-        <v>30.263535204442881</v>
+        <v>6.2146999157326599</v>
       </c>
       <c r="F190" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G190" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H190" s="0">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>543</v>
+        <v>851</v>
       </c>
       <c r="B191" s="0">
-        <v>548</v>
+        <v>940</v>
       </c>
       <c r="C191" s="0">
-        <v>52.831451867442212</v>
+        <v>62.285056016408603</v>
       </c>
       <c r="D191" s="0">
-        <v>46.107346358842939</v>
+        <v>41.624907391445461</v>
       </c>
       <c r="E191" s="0">
-        <v>29.052997738239192</v>
+        <v>29.672534287410048</v>
       </c>
       <c r="F191" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G191" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H191" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>627</v>
+        <v>828</v>
       </c>
       <c r="B192" s="0">
-        <v>525</v>
+        <v>910</v>
       </c>
       <c r="C192" s="0">
-        <v>52.117274039330766</v>
+        <v>58.368173073049249</v>
       </c>
       <c r="D192" s="0">
-        <v>46.191735619859131</v>
+        <v>40.52182982902994</v>
       </c>
       <c r="E192" s="0">
-        <v>27.26773185190234</v>
+        <v>26.618459820685867</v>
       </c>
       <c r="F192" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G192" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H192" s="0">
         <v>27</v>
@@ -12752,522 +12752,2108 @@
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>603</v>
+        <v>53</v>
       </c>
       <c r="B193" s="0">
-        <v>867</v>
+        <v>52</v>
       </c>
       <c r="C193" s="0">
-        <v>53.188184260844267</v>
+        <v>16.815707953054616</v>
       </c>
       <c r="D193" s="0">
-        <v>45.889259853709831</v>
+        <v>55.473128859636994</v>
       </c>
       <c r="E193" s="0">
-        <v>28.089540798881973</v>
+        <v>7.1209350832785576</v>
       </c>
       <c r="F193" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G193" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H193" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>675</v>
+        <v>557</v>
       </c>
       <c r="B194" s="0">
-        <v>599</v>
+        <v>498</v>
       </c>
       <c r="C194" s="0">
-        <v>53.01387524699247</v>
+        <v>42.793930300239566</v>
       </c>
       <c r="D194" s="0">
-        <v>42.182630941834766</v>
+        <v>34.742362419684696</v>
       </c>
       <c r="E194" s="0">
-        <v>29.213539201223028</v>
+        <v>46.473359264594215</v>
       </c>
       <c r="F194" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G194" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H194" s="0">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>535</v>
+        <v>965</v>
       </c>
       <c r="B195" s="0">
-        <v>596</v>
+        <v>968</v>
       </c>
       <c r="C195" s="0">
-        <v>52.900590966964387</v>
+        <v>67.099617620199211</v>
       </c>
       <c r="D195" s="0">
-        <v>41.936263500560003</v>
+        <v>46.673837424229582</v>
       </c>
       <c r="E195" s="0">
-        <v>25.331141246562268</v>
+        <v>46.358551772716581</v>
       </c>
       <c r="F195" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G195" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H195" s="0">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>630</v>
+        <v>533</v>
       </c>
       <c r="B196" s="0">
-        <v>591</v>
+        <v>222</v>
       </c>
       <c r="C196" s="0">
-        <v>53.124794071431765</v>
+        <v>33.79595609712667</v>
       </c>
       <c r="D196" s="0">
-        <v>33.111940894423434</v>
+        <v>44.622535582902678</v>
       </c>
       <c r="E196" s="0">
-        <v>20.19636945743526</v>
+        <v>53.537375876399764</v>
       </c>
       <c r="F196" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G196" s="0">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H196" s="0">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B197" s="0">
-        <v>594</v>
+        <v>533</v>
       </c>
       <c r="C197" s="0">
-        <v>52.995866661317969</v>
+        <v>34.009942358210331</v>
       </c>
       <c r="D197" s="0">
-        <v>36.244375913388026</v>
+        <v>44.648649000862243</v>
       </c>
       <c r="E197" s="0">
-        <v>24.153791337539545</v>
+        <v>53.56118941565137</v>
       </c>
       <c r="F197" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G197" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H197" s="0">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>588</v>
+        <v>252</v>
       </c>
       <c r="B198" s="0">
-        <v>592</v>
+        <v>235</v>
       </c>
       <c r="C198" s="0">
-        <v>52.716925137552472</v>
+        <v>34.922755428625074</v>
       </c>
       <c r="D198" s="0">
-        <v>30.225749964633895</v>
+        <v>64.581911422740177</v>
       </c>
       <c r="E198" s="0">
-        <v>21.294332616687214</v>
+        <v>74.737635260134411</v>
       </c>
       <c r="F198" s="0">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G198" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H198" s="0">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="B199" s="0">
-        <v>679</v>
+        <v>324</v>
       </c>
       <c r="C199" s="0">
-        <v>54.775523558832056</v>
+        <v>39.802045780175426</v>
       </c>
       <c r="D199" s="0">
-        <v>37.986137084539763</v>
+        <v>66.643865274693326</v>
       </c>
       <c r="E199" s="0">
-        <v>12.959984765970084</v>
+        <v>74.663411053975167</v>
       </c>
       <c r="F199" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G199" s="0">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H199" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>306</v>
+        <v>695</v>
       </c>
       <c r="B200" s="0">
-        <v>309</v>
+        <v>778</v>
       </c>
       <c r="C200" s="0">
-        <v>49.804599429197545</v>
+        <v>49.068192998709783</v>
       </c>
       <c r="D200" s="0">
-        <v>23.10030935798488</v>
+        <v>73.62516110661727</v>
       </c>
       <c r="E200" s="0">
-        <v>14.206795211929055</v>
+        <v>80.435036278832797</v>
       </c>
       <c r="F200" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G200" s="0">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="H200" s="0">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>298</v>
+        <v>696</v>
       </c>
       <c r="B201" s="0">
-        <v>302</v>
+        <v>837</v>
       </c>
       <c r="C201" s="0">
-        <v>49.819396545400792</v>
+        <v>51.276967032083533</v>
       </c>
       <c r="D201" s="0">
-        <v>16.082188883905722</v>
+        <v>67.660360605370386</v>
       </c>
       <c r="E201" s="0">
-        <v>12.082112622707468</v>
+        <v>74.605099136008121</v>
       </c>
       <c r="F201" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G201" s="0">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H201" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="B202" s="0">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C202" s="0">
-        <v>49.820063260248915</v>
+        <v>38.856564642595153</v>
       </c>
       <c r="D202" s="0">
-        <v>18.111009447397631</v>
+        <v>72.680822608366114</v>
       </c>
       <c r="E202" s="0">
-        <v>12.07824092669232</v>
+        <v>84.647572641476032</v>
       </c>
       <c r="F202" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G202" s="0">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="H202" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="B203" s="0">
-        <v>302</v>
+        <v>796</v>
       </c>
       <c r="C203" s="0">
-        <v>49.822455436506957</v>
+        <v>49.8117357682898</v>
       </c>
       <c r="D203" s="0">
-        <v>15.141906163987638</v>
+        <v>52.629460900138248</v>
       </c>
       <c r="E203" s="0">
-        <v>11.045340271284582</v>
+        <v>42.809111808873638</v>
       </c>
       <c r="F203" s="0">
         <v>50</v>
       </c>
       <c r="G203" s="0">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H203" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="B204" s="0">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="C204" s="0">
-        <v>49.803075044092395</v>
+        <v>32.589206237190602</v>
       </c>
       <c r="D204" s="0">
-        <v>11.098934432261633</v>
+        <v>42.013725713406195</v>
       </c>
       <c r="E204" s="0">
-        <v>8.2301173217771826</v>
+        <v>39.267360177472476</v>
       </c>
       <c r="F204" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G204" s="0">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H204" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="B205" s="0">
-        <v>940</v>
+        <v>240</v>
       </c>
       <c r="C205" s="0">
-        <v>52.028808883460805</v>
+        <v>48.794782959919061</v>
       </c>
       <c r="D205" s="0">
-        <v>57.859746995833397</v>
+        <v>32.953156253927283</v>
       </c>
       <c r="E205" s="0">
-        <v>42.64999021124153</v>
+        <v>25.330565413201938</v>
       </c>
       <c r="F205" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G205" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H205" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="B206" s="0">
-        <v>796</v>
+        <v>548</v>
       </c>
       <c r="C206" s="0">
-        <v>50.775446675864359</v>
+        <v>51.786426143223991</v>
       </c>
       <c r="D206" s="0">
-        <v>54.91253892282522</v>
+        <v>50.628551439358404</v>
       </c>
       <c r="E206" s="0">
-        <v>43.715275000782796</v>
+        <v>38.390904323014674</v>
       </c>
       <c r="F206" s="0">
+        <v>52</v>
+      </c>
+      <c r="G206" s="0">
         <v>51</v>
       </c>
-      <c r="G206" s="0">
-        <v>55</v>
-      </c>
       <c r="H206" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B207" s="0">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="C207" s="0">
-        <v>45.943549439593035</v>
+        <v>46.67031952146889</v>
       </c>
       <c r="D207" s="0">
-        <v>23.934677209979679</v>
+        <v>45.671268654119743</v>
       </c>
       <c r="E207" s="0">
-        <v>24.845711905832985</v>
+        <v>29.596327237782027</v>
       </c>
       <c r="F207" s="0">
+        <v>47</v>
+      </c>
+      <c r="G207" s="0">
         <v>46</v>
       </c>
-      <c r="G207" s="0">
-        <v>24</v>
-      </c>
       <c r="H207" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>630</v>
+        <v>168</v>
       </c>
       <c r="B208" s="0">
-        <v>828</v>
+        <v>138</v>
       </c>
       <c r="C208" s="0">
-        <v>57.86425567356661</v>
+        <v>46.751156387637444</v>
       </c>
       <c r="D208" s="0">
-        <v>40.83655105274898</v>
+        <v>44.606397080140759</v>
       </c>
       <c r="E208" s="0">
-        <v>26.830797195681054</v>
+        <v>29.680303774263365</v>
       </c>
       <c r="F208" s="0">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G208" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H208" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>688</v>
+        <v>478</v>
       </c>
       <c r="B209" s="0">
-        <v>613</v>
+        <v>356</v>
       </c>
       <c r="C209" s="0">
-        <v>56.932501084413808</v>
+        <v>49.807931677382236</v>
       </c>
       <c r="D209" s="0">
-        <v>40.065168643944382</v>
+        <v>51.38785596721533</v>
       </c>
       <c r="E209" s="0">
-        <v>42.803264298933151</v>
+        <v>37.874744537126325</v>
       </c>
       <c r="F209" s="0">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G209" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H209" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B210" s="0">
-        <v>802</v>
+        <v>478</v>
       </c>
       <c r="C210" s="0">
-        <v>49.960851531351068</v>
+        <v>49.72477681887559</v>
       </c>
       <c r="D210" s="0">
-        <v>50.983267251551908</v>
+        <v>51.440771906191472</v>
       </c>
       <c r="E210" s="0">
-        <v>57.673485128349888</v>
+        <v>37.821153671900774</v>
       </c>
       <c r="F210" s="0">
         <v>50</v>
       </c>
       <c r="G210" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H210" s="0">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>713</v>
+        <v>255</v>
       </c>
       <c r="B211" s="0">
-        <v>707</v>
+        <v>168</v>
       </c>
       <c r="C211" s="0">
-        <v>64.927510725538255</v>
+        <v>46.979178706382761</v>
       </c>
       <c r="D211" s="0">
-        <v>50.8128790397137</v>
+        <v>44.478735538636613</v>
       </c>
       <c r="E211" s="0">
-        <v>19.401555845807117</v>
+        <v>29.649918404041472</v>
       </c>
       <c r="F211" s="0">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G211" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H211" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
+        <v>127</v>
+      </c>
+      <c r="B212" s="0">
+        <v>82</v>
+      </c>
+      <c r="C212" s="0">
+        <v>44.531014321383246</v>
+      </c>
+      <c r="D212" s="0">
+        <v>33.193882275540567</v>
+      </c>
+      <c r="E212" s="0">
+        <v>22.19417222679656</v>
+      </c>
+      <c r="F212" s="0">
+        <v>45</v>
+      </c>
+      <c r="G212" s="0">
+        <v>33</v>
+      </c>
+      <c r="H212" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>657</v>
+      </c>
+      <c r="B213" s="0">
+        <v>493</v>
+      </c>
+      <c r="C213" s="0">
+        <v>50.990545028484533</v>
+      </c>
+      <c r="D213" s="0">
+        <v>56.074432114169653</v>
+      </c>
+      <c r="E213" s="0">
+        <v>44.468177471610858</v>
+      </c>
+      <c r="F213" s="0">
+        <v>51</v>
+      </c>
+      <c r="G213" s="0">
+        <v>56</v>
+      </c>
+      <c r="H213" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>78</v>
+      </c>
+      <c r="B214" s="0">
+        <v>65</v>
+      </c>
+      <c r="C214" s="0">
+        <v>43.737780898540493</v>
+      </c>
+      <c r="D214" s="0">
+        <v>31.206211307614176</v>
+      </c>
+      <c r="E214" s="0">
+        <v>20.406676732318239</v>
+      </c>
+      <c r="F214" s="0">
+        <v>44</v>
+      </c>
+      <c r="G214" s="0">
+        <v>31</v>
+      </c>
+      <c r="H214" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>449</v>
+      </c>
+      <c r="B215" s="0">
+        <v>364</v>
+      </c>
+      <c r="C215" s="0">
+        <v>49.778213076224098</v>
+      </c>
+      <c r="D215" s="0">
+        <v>53.134389688180754</v>
+      </c>
+      <c r="E215" s="0">
+        <v>40.507892573689148</v>
+      </c>
+      <c r="F215" s="0">
+        <v>50</v>
+      </c>
+      <c r="G215" s="0">
+        <v>53</v>
+      </c>
+      <c r="H215" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>655</v>
+      </c>
+      <c r="B216" s="0">
+        <v>490</v>
+      </c>
+      <c r="C216" s="0">
+        <v>50.914874313244127</v>
+      </c>
+      <c r="D216" s="0">
+        <v>57.157609315780711</v>
+      </c>
+      <c r="E216" s="0">
+        <v>43.329098578630322</v>
+      </c>
+      <c r="F216" s="0">
+        <v>51</v>
+      </c>
+      <c r="G216" s="0">
+        <v>57</v>
+      </c>
+      <c r="H216" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>490</v>
+      </c>
+      <c r="B217" s="0">
+        <v>485</v>
+      </c>
+      <c r="C217" s="0">
+        <v>51.0312546889012</v>
+      </c>
+      <c r="D217" s="0">
+        <v>56.292243762742473</v>
+      </c>
+      <c r="E217" s="0">
+        <v>42.336515013669811</v>
+      </c>
+      <c r="F217" s="0">
+        <v>51</v>
+      </c>
+      <c r="G217" s="0">
+        <v>56</v>
+      </c>
+      <c r="H217" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>362</v>
+      </c>
+      <c r="B218" s="0">
+        <v>273</v>
+      </c>
+      <c r="C218" s="0">
+        <v>48.883222130534307</v>
+      </c>
+      <c r="D218" s="0">
+        <v>55.326075098301672</v>
+      </c>
+      <c r="E218" s="0">
+        <v>44.202137653539488</v>
+      </c>
+      <c r="F218" s="0">
+        <v>49</v>
+      </c>
+      <c r="G218" s="0">
+        <v>55</v>
+      </c>
+      <c r="H218" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>638</v>
+      </c>
+      <c r="B219" s="0">
+        <v>798</v>
+      </c>
+      <c r="C219" s="0">
+        <v>49.81164211596758</v>
+      </c>
+      <c r="D219" s="0">
+        <v>52.142729749685124</v>
+      </c>
+      <c r="E219" s="0">
+        <v>48.464984617138043</v>
+      </c>
+      <c r="F219" s="0">
+        <v>50</v>
+      </c>
+      <c r="G219" s="0">
+        <v>52</v>
+      </c>
+      <c r="H219" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>493</v>
+      </c>
+      <c r="B220" s="0">
+        <v>610</v>
+      </c>
+      <c r="C220" s="0">
+        <v>51.879752741895302</v>
+      </c>
+      <c r="D220" s="0">
+        <v>51.297279317363234</v>
+      </c>
+      <c r="E220" s="0">
+        <v>38.461397172761068</v>
+      </c>
+      <c r="F220" s="0">
+        <v>52</v>
+      </c>
+      <c r="G220" s="0">
+        <v>51</v>
+      </c>
+      <c r="H220" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>640</v>
+      </c>
+      <c r="B221" s="0">
+        <v>638</v>
+      </c>
+      <c r="C221" s="0">
+        <v>49.870464080227528</v>
+      </c>
+      <c r="D221" s="0">
+        <v>52.110808413517063</v>
+      </c>
+      <c r="E221" s="0">
+        <v>48.523185402607481</v>
+      </c>
+      <c r="F221" s="0">
+        <v>50</v>
+      </c>
+      <c r="G221" s="0">
+        <v>52</v>
+      </c>
+      <c r="H221" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>660</v>
+      </c>
+      <c r="B222" s="0">
+        <v>567</v>
+      </c>
+      <c r="C222" s="0">
+        <v>51.75094476519071</v>
+      </c>
+      <c r="D222" s="0">
+        <v>57.393464752270162</v>
+      </c>
+      <c r="E222" s="0">
+        <v>42.521541073113269</v>
+      </c>
+      <c r="F222" s="0">
+        <v>52</v>
+      </c>
+      <c r="G222" s="0">
+        <v>57</v>
+      </c>
+      <c r="H222" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>288</v>
+      </c>
+      <c r="B223" s="0">
+        <v>147</v>
+      </c>
+      <c r="C223" s="0">
+        <v>47.736449907961422</v>
+      </c>
+      <c r="D223" s="0">
+        <v>22.455457381321494</v>
+      </c>
+      <c r="E223" s="0">
+        <v>15.398388409966616</v>
+      </c>
+      <c r="F223" s="0">
+        <v>48</v>
+      </c>
+      <c r="G223" s="0">
+        <v>22</v>
+      </c>
+      <c r="H223" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>452</v>
+      </c>
+      <c r="B224" s="0">
+        <v>276</v>
+      </c>
+      <c r="C224" s="0">
+        <v>49.076305962151451</v>
+      </c>
+      <c r="D224" s="0">
+        <v>54.252417630197613</v>
+      </c>
+      <c r="E224" s="0">
+        <v>46.454759344846167</v>
+      </c>
+      <c r="F224" s="0">
+        <v>49</v>
+      </c>
+      <c r="G224" s="0">
+        <v>54</v>
+      </c>
+      <c r="H224" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>662</v>
+      </c>
+      <c r="B225" s="0">
+        <v>572</v>
+      </c>
+      <c r="C225" s="0">
+        <v>51.83599644459234</v>
+      </c>
+      <c r="D225" s="0">
+        <v>57.365011953129851</v>
+      </c>
+      <c r="E225" s="0">
+        <v>43.261011359281284</v>
+      </c>
+      <c r="F225" s="0">
+        <v>52</v>
+      </c>
+      <c r="G225" s="0">
+        <v>57</v>
+      </c>
+      <c r="H225" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>567</v>
+      </c>
+      <c r="B226" s="0">
+        <v>560</v>
+      </c>
+      <c r="C226" s="0">
+        <v>52.077535682001532</v>
+      </c>
+      <c r="D226" s="0">
+        <v>56.360460254646547</v>
+      </c>
+      <c r="E226" s="0">
+        <v>41.406570912975987</v>
+      </c>
+      <c r="F226" s="0">
+        <v>52</v>
+      </c>
+      <c r="G226" s="0">
+        <v>56</v>
+      </c>
+      <c r="H226" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>539</v>
+      </c>
+      <c r="B227" s="0">
+        <v>391</v>
+      </c>
+      <c r="C227" s="0">
+        <v>50.065805611305059</v>
+      </c>
+      <c r="D227" s="0">
+        <v>54.065698968216807</v>
+      </c>
+      <c r="E227" s="0">
+        <v>46.428347846515351</v>
+      </c>
+      <c r="F227" s="0">
+        <v>50</v>
+      </c>
+      <c r="G227" s="0">
+        <v>54</v>
+      </c>
+      <c r="H227" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>520</v>
+      </c>
+      <c r="B228" s="0">
+        <v>274</v>
+      </c>
+      <c r="C228" s="0">
+        <v>48.777430886413285</v>
+      </c>
+      <c r="D228" s="0">
+        <v>56.423026399217775</v>
+      </c>
+      <c r="E228" s="0">
+        <v>44.263322573944194</v>
+      </c>
+      <c r="F228" s="0">
+        <v>49</v>
+      </c>
+      <c r="G228" s="0">
+        <v>56</v>
+      </c>
+      <c r="H228" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>277</v>
+      </c>
+      <c r="B229" s="0">
+        <v>184</v>
+      </c>
+      <c r="C229" s="0">
+        <v>48.905046628568869</v>
+      </c>
+      <c r="D229" s="0">
+        <v>9.3559207241232691</v>
+      </c>
+      <c r="E229" s="0">
+        <v>7.5346247077782564</v>
+      </c>
+      <c r="F229" s="0">
+        <v>49</v>
+      </c>
+      <c r="G229" s="0">
+        <v>9</v>
+      </c>
+      <c r="H229" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>147</v>
+      </c>
+      <c r="B230" s="0">
+        <v>204</v>
+      </c>
+      <c r="C230" s="0">
+        <v>48.97458850065626</v>
+      </c>
+      <c r="D230" s="0">
+        <v>17.442684814003226</v>
+      </c>
+      <c r="E230" s="0">
+        <v>11.430605476347441</v>
+      </c>
+      <c r="F230" s="0">
+        <v>49</v>
+      </c>
+      <c r="G230" s="0">
+        <v>17</v>
+      </c>
+      <c r="H230" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>443</v>
+      </c>
+      <c r="B231" s="0">
+        <v>794</v>
+      </c>
+      <c r="C231" s="0">
+        <v>50.004046620887614</v>
+      </c>
+      <c r="D231" s="0">
+        <v>54.406763841709186</v>
+      </c>
+      <c r="E231" s="0">
+        <v>36.178672029540799</v>
+      </c>
+      <c r="F231" s="0">
+        <v>50</v>
+      </c>
+      <c r="G231" s="0">
+        <v>54</v>
+      </c>
+      <c r="H231" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>274</v>
+      </c>
+      <c r="B232" s="0">
+        <v>355</v>
+      </c>
+      <c r="C232" s="0">
+        <v>49.784265910509085</v>
+      </c>
+      <c r="D232" s="0">
+        <v>51.250851841348933</v>
+      </c>
+      <c r="E232" s="0">
+        <v>38.320997225095709</v>
+      </c>
+      <c r="F232" s="0">
+        <v>50</v>
+      </c>
+      <c r="G232" s="0">
+        <v>51</v>
+      </c>
+      <c r="H232" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>531</v>
+      </c>
+      <c r="B233" s="0">
+        <v>454</v>
+      </c>
+      <c r="C233" s="0">
+        <v>50.94120217275416</v>
+      </c>
+      <c r="D233" s="0">
+        <v>49.409821509972723</v>
+      </c>
+      <c r="E233" s="0">
+        <v>37.585175272041774</v>
+      </c>
+      <c r="F233" s="0">
+        <v>51</v>
+      </c>
+      <c r="G233" s="0">
+        <v>49</v>
+      </c>
+      <c r="H233" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>670</v>
+      </c>
+      <c r="B234" s="0">
+        <v>545</v>
+      </c>
+      <c r="C234" s="0">
+        <v>51.921335813727055</v>
+      </c>
+      <c r="D234" s="0">
+        <v>50.028167822819448</v>
+      </c>
+      <c r="E234" s="0">
+        <v>37.408766719964504</v>
+      </c>
+      <c r="F234" s="0">
+        <v>52</v>
+      </c>
+      <c r="G234" s="0">
+        <v>50</v>
+      </c>
+      <c r="H234" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>673</v>
+      </c>
+      <c r="B235" s="0">
+        <v>547</v>
+      </c>
+      <c r="C235" s="0">
+        <v>51.921674378868325</v>
+      </c>
+      <c r="D235" s="0">
+        <v>50.385646488062875</v>
+      </c>
+      <c r="E235" s="0">
+        <v>38.440823501476793</v>
+      </c>
+      <c r="F235" s="0">
+        <v>52</v>
+      </c>
+      <c r="G235" s="0">
+        <v>50</v>
+      </c>
+      <c r="H235" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>674</v>
+      </c>
+      <c r="B236" s="0">
+        <v>493</v>
+      </c>
+      <c r="C236" s="0">
+        <v>51.913918518173382</v>
+      </c>
+      <c r="D236" s="0">
+        <v>51.399220854595335</v>
+      </c>
+      <c r="E236" s="0">
+        <v>38.481054202664922</v>
+      </c>
+      <c r="F236" s="0">
+        <v>52</v>
+      </c>
+      <c r="G236" s="0">
+        <v>51</v>
+      </c>
+      <c r="H236" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>672</v>
+      </c>
+      <c r="B237" s="0">
+        <v>670</v>
+      </c>
+      <c r="C237" s="0">
+        <v>51.97950002188896</v>
+      </c>
+      <c r="D237" s="0">
+        <v>50.095671868297643</v>
+      </c>
+      <c r="E237" s="0">
+        <v>37.506459298988098</v>
+      </c>
+      <c r="F237" s="0">
+        <v>52</v>
+      </c>
+      <c r="G237" s="0">
+        <v>50</v>
+      </c>
+      <c r="H237" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>669</v>
+      </c>
+      <c r="B238" s="0">
+        <v>543</v>
+      </c>
+      <c r="C238" s="0">
+        <v>52.011309390549819</v>
+      </c>
+      <c r="D238" s="0">
+        <v>50.315431066033369</v>
+      </c>
+      <c r="E238" s="0">
+        <v>36.312849166191853</v>
+      </c>
+      <c r="F238" s="0">
+        <v>52</v>
+      </c>
+      <c r="G238" s="0">
+        <v>50</v>
+      </c>
+      <c r="H238" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>339</v>
+      </c>
+      <c r="B239" s="0">
+        <v>258</v>
+      </c>
+      <c r="C239" s="0">
+        <v>48.914734989107821</v>
+      </c>
+      <c r="D239" s="0">
+        <v>51.131393494704341</v>
+      </c>
+      <c r="E239" s="0">
+        <v>35.378107991869939</v>
+      </c>
+      <c r="F239" s="0">
+        <v>49</v>
+      </c>
+      <c r="G239" s="0">
+        <v>51</v>
+      </c>
+      <c r="H239" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>239</v>
+      </c>
+      <c r="B240" s="0">
+        <v>165</v>
+      </c>
+      <c r="C240" s="0">
+        <v>47.773942124726062</v>
+      </c>
+      <c r="D240" s="0">
+        <v>42.273303573991818</v>
+      </c>
+      <c r="E240" s="0">
+        <v>29.336044636409653</v>
+      </c>
+      <c r="F240" s="0">
+        <v>48</v>
+      </c>
+      <c r="G240" s="0">
+        <v>42</v>
+      </c>
+      <c r="H240" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>572</v>
+      </c>
+      <c r="B241" s="0">
+        <v>664</v>
+      </c>
+      <c r="C241" s="0">
+        <v>53.770613337453391</v>
+      </c>
+      <c r="D241" s="0">
+        <v>47.259626389855562</v>
+      </c>
+      <c r="E241" s="0">
+        <v>31.489973989099077</v>
+      </c>
+      <c r="F241" s="0">
+        <v>54</v>
+      </c>
+      <c r="G241" s="0">
+        <v>47</v>
+      </c>
+      <c r="H241" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>643</v>
+      </c>
+      <c r="B242" s="0">
+        <v>535</v>
+      </c>
+      <c r="C242" s="0">
+        <v>51.856594035841731</v>
+      </c>
+      <c r="D242" s="0">
+        <v>46.288691259208335</v>
+      </c>
+      <c r="E242" s="0">
+        <v>33.388910684728657</v>
+      </c>
+      <c r="F242" s="0">
+        <v>52</v>
+      </c>
+      <c r="G242" s="0">
+        <v>46</v>
+      </c>
+      <c r="H242" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>632</v>
+      </c>
+      <c r="B243" s="0">
+        <v>529</v>
+      </c>
+      <c r="C243" s="0">
+        <v>51.856850178448795</v>
+      </c>
+      <c r="D243" s="0">
+        <v>43.288937424660276</v>
+      </c>
+      <c r="E243" s="0">
+        <v>30.626742104377712</v>
+      </c>
+      <c r="F243" s="0">
+        <v>52</v>
+      </c>
+      <c r="G243" s="0">
+        <v>43</v>
+      </c>
+      <c r="H243" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>633</v>
+      </c>
+      <c r="B244" s="0">
+        <v>530</v>
+      </c>
+      <c r="C244" s="0">
+        <v>51.879663819701364</v>
+      </c>
+      <c r="D244" s="0">
+        <v>45.420605393304875</v>
+      </c>
+      <c r="E244" s="0">
+        <v>30.437196001147033</v>
+      </c>
+      <c r="F244" s="0">
+        <v>52</v>
+      </c>
+      <c r="G244" s="0">
+        <v>45</v>
+      </c>
+      <c r="H244" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>545</v>
+      </c>
+      <c r="B245" s="0">
+        <v>601</v>
+      </c>
+      <c r="C245" s="0">
+        <v>52.799942488086515</v>
+      </c>
+      <c r="D245" s="0">
+        <v>46.252117944104683</v>
+      </c>
+      <c r="E245" s="0">
+        <v>29.641148007745038</v>
+      </c>
+      <c r="F245" s="0">
+        <v>53</v>
+      </c>
+      <c r="G245" s="0">
+        <v>46</v>
+      </c>
+      <c r="H245" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>547</v>
+      </c>
+      <c r="B246" s="0">
+        <v>602</v>
+      </c>
+      <c r="C246" s="0">
+        <v>52.824830363114735</v>
+      </c>
+      <c r="D246" s="0">
+        <v>46.308803115318184</v>
+      </c>
+      <c r="E246" s="0">
+        <v>30.485532951128672</v>
+      </c>
+      <c r="F246" s="0">
+        <v>53</v>
+      </c>
+      <c r="G246" s="0">
+        <v>46</v>
+      </c>
+      <c r="H246" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>493</v>
+      </c>
+      <c r="B247" s="0">
+        <v>603</v>
+      </c>
+      <c r="C247" s="0">
+        <v>52.841428723344819</v>
+      </c>
+      <c r="D247" s="0">
+        <v>47.185473709401947</v>
+      </c>
+      <c r="E247" s="0">
+        <v>30.588598944700578</v>
+      </c>
+      <c r="F247" s="0">
+        <v>53</v>
+      </c>
+      <c r="G247" s="0">
+        <v>47</v>
+      </c>
+      <c r="H247" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>670</v>
+      </c>
+      <c r="B248" s="0">
+        <v>547</v>
+      </c>
+      <c r="C248" s="0">
+        <v>52.809419843136169</v>
+      </c>
+      <c r="D248" s="0">
+        <v>46.212504472740726</v>
+      </c>
+      <c r="E248" s="0">
+        <v>30.247406131410386</v>
+      </c>
+      <c r="F248" s="0">
+        <v>53</v>
+      </c>
+      <c r="G248" s="0">
+        <v>46</v>
+      </c>
+      <c r="H248" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>543</v>
+      </c>
+      <c r="B249" s="0">
+        <v>545</v>
+      </c>
+      <c r="C249" s="0">
+        <v>52.789755368469308</v>
+      </c>
+      <c r="D249" s="0">
+        <v>46.301688808864185</v>
+      </c>
+      <c r="E249" s="0">
+        <v>29.400117910648028</v>
+      </c>
+      <c r="F249" s="0">
+        <v>53</v>
+      </c>
+      <c r="G249" s="0">
+        <v>46</v>
+      </c>
+      <c r="H249" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>603</v>
+      </c>
+      <c r="B250" s="0">
+        <v>867</v>
+      </c>
+      <c r="C250" s="0">
+        <v>53.163640319170966</v>
+      </c>
+      <c r="D250" s="0">
+        <v>46.159808079509276</v>
+      </c>
+      <c r="E250" s="0">
+        <v>28.307499359669031</v>
+      </c>
+      <c r="F250" s="0">
+        <v>53</v>
+      </c>
+      <c r="G250" s="0">
+        <v>46</v>
+      </c>
+      <c r="H250" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>627</v>
+      </c>
+      <c r="B251" s="0">
+        <v>525</v>
+      </c>
+      <c r="C251" s="0">
+        <v>52.096261796586369</v>
+      </c>
+      <c r="D251" s="0">
+        <v>46.294320374157699</v>
+      </c>
+      <c r="E251" s="0">
+        <v>27.438128019231165</v>
+      </c>
+      <c r="F251" s="0">
+        <v>52</v>
+      </c>
+      <c r="G251" s="0">
+        <v>46</v>
+      </c>
+      <c r="H251" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>675</v>
+      </c>
+      <c r="B252" s="0">
+        <v>599</v>
+      </c>
+      <c r="C252" s="0">
+        <v>53.023133844889855</v>
+      </c>
+      <c r="D252" s="0">
+        <v>42.115104698754067</v>
+      </c>
+      <c r="E252" s="0">
+        <v>29.52387066738542</v>
+      </c>
+      <c r="F252" s="0">
+        <v>53</v>
+      </c>
+      <c r="G252" s="0">
+        <v>42</v>
+      </c>
+      <c r="H252" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>535</v>
+      </c>
+      <c r="B253" s="0">
+        <v>596</v>
+      </c>
+      <c r="C253" s="0">
+        <v>52.879873712956758</v>
+      </c>
+      <c r="D253" s="0">
+        <v>42.029282405914394</v>
+      </c>
+      <c r="E253" s="0">
+        <v>25.506977188943381</v>
+      </c>
+      <c r="F253" s="0">
+        <v>53</v>
+      </c>
+      <c r="G253" s="0">
+        <v>42</v>
+      </c>
+      <c r="H253" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>630</v>
+      </c>
+      <c r="B254" s="0">
+        <v>591</v>
+      </c>
+      <c r="C254" s="0">
+        <v>53.102606345177833</v>
+      </c>
+      <c r="D254" s="0">
+        <v>33.190833061889492</v>
+      </c>
+      <c r="E254" s="0">
+        <v>20.378807750335042</v>
+      </c>
+      <c r="F254" s="0">
+        <v>53</v>
+      </c>
+      <c r="G254" s="0">
+        <v>33</v>
+      </c>
+      <c r="H254" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>642</v>
+      </c>
+      <c r="B255" s="0">
+        <v>594</v>
+      </c>
+      <c r="C255" s="0">
+        <v>52.974148666506572</v>
+      </c>
+      <c r="D255" s="0">
+        <v>36.336175807399698</v>
+      </c>
+      <c r="E255" s="0">
+        <v>24.330146400298794</v>
+      </c>
+      <c r="F255" s="0">
+        <v>53</v>
+      </c>
+      <c r="G255" s="0">
+        <v>36</v>
+      </c>
+      <c r="H255" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>297</v>
+      </c>
+      <c r="B256" s="0">
+        <v>218</v>
+      </c>
+      <c r="C256" s="0">
+        <v>48.930472093187248</v>
+      </c>
+      <c r="D256" s="0">
+        <v>21.327502457207146</v>
+      </c>
+      <c r="E256" s="0">
+        <v>16.48941368929875</v>
+      </c>
+      <c r="F256" s="0">
+        <v>49</v>
+      </c>
+      <c r="G256" s="0">
+        <v>21</v>
+      </c>
+      <c r="H256" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>588</v>
+      </c>
+      <c r="B257" s="0">
+        <v>592</v>
+      </c>
+      <c r="C257" s="0">
+        <v>52.695288229371762</v>
+      </c>
+      <c r="D257" s="0">
+        <v>30.319440514222038</v>
+      </c>
+      <c r="E257" s="0">
+        <v>21.469700587315408</v>
+      </c>
+      <c r="F257" s="0">
+        <v>53</v>
+      </c>
+      <c r="G257" s="0">
+        <v>30</v>
+      </c>
+      <c r="H257" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>601</v>
+      </c>
+      <c r="B258" s="0">
+        <v>679</v>
+      </c>
+      <c r="C258" s="0">
+        <v>54.734812135630008</v>
+      </c>
+      <c r="D258" s="0">
+        <v>38.16498455724134</v>
+      </c>
+      <c r="E258" s="0">
+        <v>13.31545088464966</v>
+      </c>
+      <c r="F258" s="0">
+        <v>55</v>
+      </c>
+      <c r="G258" s="0">
+        <v>38</v>
+      </c>
+      <c r="H258" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>306</v>
+      </c>
+      <c r="B259" s="0">
+        <v>309</v>
+      </c>
+      <c r="C259" s="0">
+        <v>49.757078515157716</v>
+      </c>
+      <c r="D259" s="0">
+        <v>23.367901751411821</v>
+      </c>
+      <c r="E259" s="0">
+        <v>14.500284689949751</v>
+      </c>
+      <c r="F259" s="0">
+        <v>50</v>
+      </c>
+      <c r="G259" s="0">
+        <v>23</v>
+      </c>
+      <c r="H259" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>298</v>
+      </c>
+      <c r="B260" s="0">
+        <v>302</v>
+      </c>
+      <c r="C260" s="0">
+        <v>49.772517364819002</v>
+      </c>
+      <c r="D260" s="0">
+        <v>16.363092304190825</v>
+      </c>
+      <c r="E260" s="0">
+        <v>12.362996247897884</v>
+      </c>
+      <c r="F260" s="0">
+        <v>50</v>
+      </c>
+      <c r="G260" s="0">
+        <v>16</v>
+      </c>
+      <c r="H260" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>299</v>
+      </c>
+      <c r="B261" s="0">
+        <v>303</v>
+      </c>
+      <c r="C261" s="0">
+        <v>49.773885035532409</v>
+      </c>
+      <c r="D261" s="0">
+        <v>18.396134341819199</v>
+      </c>
+      <c r="E261" s="0">
+        <v>12.35495624275401</v>
+      </c>
+      <c r="F261" s="0">
+        <v>50</v>
+      </c>
+      <c r="G261" s="0">
+        <v>18</v>
+      </c>
+      <c r="H261" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>295</v>
+      </c>
+      <c r="B262" s="0">
+        <v>302</v>
+      </c>
+      <c r="C262" s="0">
+        <v>49.774849604433058</v>
+      </c>
+      <c r="D262" s="0">
+        <v>15.448845536641819</v>
+      </c>
+      <c r="E262" s="0">
+        <v>11.32633534322945</v>
+      </c>
+      <c r="F262" s="0">
+        <v>50</v>
+      </c>
+      <c r="G262" s="0">
+        <v>15</v>
+      </c>
+      <c r="H262" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>283</v>
+      </c>
+      <c r="B263" s="0">
+        <v>286</v>
+      </c>
+      <c r="C263" s="0">
+        <v>49.758389646542199</v>
+      </c>
+      <c r="D263" s="0">
+        <v>11.347488875511402</v>
+      </c>
+      <c r="E263" s="0">
+        <v>8.5082945459651746</v>
+      </c>
+      <c r="F263" s="0">
+        <v>50</v>
+      </c>
+      <c r="G263" s="0">
+        <v>11</v>
+      </c>
+      <c r="H263" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>568</v>
+      </c>
+      <c r="B264" s="0">
+        <v>940</v>
+      </c>
+      <c r="C264" s="0">
+        <v>52.009551465846933</v>
+      </c>
+      <c r="D264" s="0">
+        <v>57.946301691834442</v>
+      </c>
+      <c r="E264" s="0">
+        <v>42.470721038021445</v>
+      </c>
+      <c r="F264" s="0">
+        <v>52</v>
+      </c>
+      <c r="G264" s="0">
+        <v>58</v>
+      </c>
+      <c r="H264" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>468</v>
+      </c>
+      <c r="B265" s="0">
+        <v>796</v>
+      </c>
+      <c r="C265" s="0">
+        <v>50.786683336552692</v>
+      </c>
+      <c r="D265" s="0">
+        <v>54.920282019140458</v>
+      </c>
+      <c r="E265" s="0">
+        <v>43.5157410890885</v>
+      </c>
+      <c r="F265" s="0">
+        <v>51</v>
+      </c>
+      <c r="G265" s="0">
+        <v>55</v>
+      </c>
+      <c r="H265" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>216</v>
+      </c>
+      <c r="B266" s="0">
+        <v>425</v>
+      </c>
+      <c r="C266" s="0">
+        <v>46.055201864582067</v>
+      </c>
+      <c r="D266" s="0">
+        <v>23.830057150425255</v>
+      </c>
+      <c r="E266" s="0">
+        <v>24.476133255025211</v>
+      </c>
+      <c r="F266" s="0">
+        <v>46</v>
+      </c>
+      <c r="G266" s="0">
+        <v>24</v>
+      </c>
+      <c r="H266" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>630</v>
+      </c>
+      <c r="B267" s="0">
+        <v>828</v>
+      </c>
+      <c r="C267" s="0">
+        <v>57.753009295897016</v>
+      </c>
+      <c r="D267" s="0">
+        <v>40.70270456537672</v>
+      </c>
+      <c r="E267" s="0">
+        <v>26.692478536401751</v>
+      </c>
+      <c r="F267" s="0">
+        <v>58</v>
+      </c>
+      <c r="G267" s="0">
+        <v>41</v>
+      </c>
+      <c r="H267" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>630</v>
+      </c>
+      <c r="B268" s="0">
+        <v>828</v>
+      </c>
+      <c r="C268" s="0">
+        <v>57.853021427907933</v>
+      </c>
+      <c r="D268" s="0">
+        <v>40.823086222499292</v>
+      </c>
+      <c r="E268" s="0">
+        <v>26.817000944341263</v>
+      </c>
+      <c r="F268" s="0">
+        <v>58</v>
+      </c>
+      <c r="G268" s="0">
+        <v>41</v>
+      </c>
+      <c r="H268" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>688</v>
+      </c>
+      <c r="B269" s="0">
+        <v>613</v>
+      </c>
+      <c r="C269" s="0">
+        <v>56.886136466540897</v>
+      </c>
+      <c r="D269" s="0">
+        <v>40.134439868542422</v>
+      </c>
+      <c r="E269" s="0">
+        <v>42.412045920463804</v>
+      </c>
+      <c r="F269" s="0">
+        <v>57</v>
+      </c>
+      <c r="G269" s="0">
+        <v>40</v>
+      </c>
+      <c r="H269" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>465</v>
+      </c>
+      <c r="B270" s="0">
+        <v>802</v>
+      </c>
+      <c r="C270" s="0">
+        <v>49.970618707419767</v>
+      </c>
+      <c r="D270" s="0">
+        <v>51.077824595971173</v>
+      </c>
+      <c r="E270" s="0">
+        <v>57.497520612358684</v>
+      </c>
+      <c r="F270" s="0">
+        <v>50</v>
+      </c>
+      <c r="G270" s="0">
+        <v>51</v>
+      </c>
+      <c r="H270" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>713</v>
+      </c>
+      <c r="B271" s="0">
+        <v>707</v>
+      </c>
+      <c r="C271" s="0">
+        <v>64.919070623354628</v>
+      </c>
+      <c r="D271" s="0">
+        <v>50.654013708604857</v>
+      </c>
+      <c r="E271" s="0">
+        <v>19.522760512577033</v>
+      </c>
+      <c r="F271" s="0">
+        <v>65</v>
+      </c>
+      <c r="G271" s="0">
+        <v>51</v>
+      </c>
+      <c r="H271" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
         <v>90</v>
       </c>
-      <c r="B212" s="0">
+      <c r="B272" s="0">
         <v>109</v>
       </c>
-      <c r="C212" s="0">
-        <v>20.147229707726925</v>
-      </c>
-      <c r="D212" s="0">
-        <v>20.138226642992876</v>
-      </c>
-      <c r="E212" s="0">
-        <v>59.761809701836967</v>
-      </c>
-      <c r="F212" s="0">
+      <c r="C272" s="0">
+        <v>20.174596179455563</v>
+      </c>
+      <c r="D272" s="0">
+        <v>20.16547837053945</v>
+      </c>
+      <c r="E272" s="0">
+        <v>59.363678543082898</v>
+      </c>
+      <c r="F272" s="0">
         <v>20</v>
       </c>
-      <c r="G212" s="0">
+      <c r="G272" s="0">
         <v>20</v>
       </c>
-      <c r="H212" s="0">
+      <c r="H272" s="0">
         <v>60</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>105</v>
+      </c>
+      <c r="B273" s="0">
+        <v>104</v>
+      </c>
+      <c r="C273" s="0">
+        <v>19.220490948056614</v>
+      </c>
+      <c r="D273" s="0">
+        <v>28.072327015436166</v>
+      </c>
+      <c r="E273" s="0">
+        <v>67.57526188924011</v>
+      </c>
+      <c r="F273" s="0">
+        <v>19</v>
+      </c>
+      <c r="G273" s="0">
+        <v>28</v>
+      </c>
+      <c r="H273" s="0">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
